--- a/GANTT chart.xlsx
+++ b/GANTT chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\School Stuff\2nd Year\CS 2043\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Year2\Fall\CS2043\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50BA07E-A997-4FDC-A2E0-41373E696BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524AC93F-4617-44D7-8EE8-359F6DF50B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2939,6 +2939,33 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2946,39 +2973,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3221,13 +3221,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -3812,25 +3812,25 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.88671875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.44140625" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
         <v>1</v>
       </c>
@@ -3840,31 +3840,31 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="130"/>
-      <c r="K1" s="163" t="s">
+      <c r="K1" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-    </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+    </row>
+    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>139</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="F2" s="158"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
       <c r="B3" s="47"/>
       <c r="C3" s="4"/>
@@ -3902,16 +3902,16 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="108"/>
       <c r="B4" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="168">
+      <c r="C4" s="174">
         <v>44151</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
       <c r="F4" s="109"/>
       <c r="G4" s="112" t="s">
         <v>76</v>
@@ -3921,95 +3921,95 @@
       </c>
       <c r="I4" s="110"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="165" t="str">
+      <c r="K4" s="166" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="165" t="str">
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="166" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="165" t="str">
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="166" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="166"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="166"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="167"/>
-      <c r="AF4" s="165" t="str">
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="166" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="166"/>
-      <c r="AH4" s="166"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="166"/>
-      <c r="AK4" s="166"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="165" t="str">
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="166" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="166"/>
-      <c r="AO4" s="166"/>
-      <c r="AP4" s="166"/>
-      <c r="AQ4" s="166"/>
-      <c r="AR4" s="166"/>
-      <c r="AS4" s="167"/>
-      <c r="AT4" s="165" t="str">
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="168"/>
+      <c r="AT4" s="166" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="166"/>
-      <c r="AV4" s="166"/>
-      <c r="AW4" s="166"/>
-      <c r="AX4" s="166"/>
-      <c r="AY4" s="166"/>
-      <c r="AZ4" s="167"/>
-      <c r="BA4" s="165" t="str">
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
+      <c r="AX4" s="167"/>
+      <c r="AY4" s="167"/>
+      <c r="AZ4" s="168"/>
+      <c r="BA4" s="166" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="166"/>
-      <c r="BC4" s="166"/>
-      <c r="BD4" s="166"/>
-      <c r="BE4" s="166"/>
-      <c r="BF4" s="166"/>
-      <c r="BG4" s="167"/>
-      <c r="BH4" s="165" t="str">
+      <c r="BB4" s="167"/>
+      <c r="BC4" s="167"/>
+      <c r="BD4" s="167"/>
+      <c r="BE4" s="167"/>
+      <c r="BF4" s="167"/>
+      <c r="BG4" s="168"/>
+      <c r="BH4" s="166" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="166"/>
-      <c r="BJ4" s="166"/>
-      <c r="BK4" s="166"/>
-      <c r="BL4" s="166"/>
-      <c r="BM4" s="166"/>
-      <c r="BN4" s="167"/>
-    </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI4" s="167"/>
+      <c r="BJ4" s="167"/>
+      <c r="BK4" s="167"/>
+      <c r="BL4" s="167"/>
+      <c r="BM4" s="167"/>
+      <c r="BN4" s="168"/>
+    </row>
+    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="108"/>
       <c r="B5" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
@@ -4096,7 +4096,7 @@
       <c r="BM5" s="170"/>
       <c r="BN5" s="171"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -4332,7 +4332,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="122" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" s="122" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="114" t="s">
         <v>0</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="83" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -4598,13 +4598,13 @@
       <c r="D8" s="86"/>
       <c r="E8" s="87"/>
       <c r="F8" s="113" t="str">
-        <f>IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
+        <f t="shared" ref="F8:F24" si="4">IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G8" s="88"/>
       <c r="H8" s="89"/>
       <c r="I8" s="90" t="str">
-        <f>IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I23" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="93"/>
@@ -4665,7 +4665,7 @@
       <c r="BM8" s="105"/>
       <c r="BN8" s="105"/>
     </row>
-    <row r="9" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -4681,7 +4681,7 @@
         <v>44146</v>
       </c>
       <c r="F9" s="100">
-        <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
+        <f t="shared" si="4"/>
         <v>44150</v>
       </c>
       <c r="G9" s="61">
@@ -4691,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="63">
-        <f>IF(OR(F9=0,E9=0)," - ",NETWORKDAYS(E9,F9))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J9" s="94"/>
@@ -4752,7 +4752,7 @@
       <c r="BM9" s="106"/>
       <c r="BN9" s="106"/>
     </row>
-    <row r="10" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.2</v>
@@ -4765,7 +4765,7 @@
         <v>44150</v>
       </c>
       <c r="F10" s="100">
-        <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" si="4"/>
         <v>44152</v>
       </c>
       <c r="G10" s="61">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="63">
-        <f>IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J10" s="94"/>
@@ -4836,7 +4836,7 @@
       <c r="BM10" s="106"/>
       <c r="BN10" s="106"/>
     </row>
-    <row r="11" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.3</v>
@@ -4849,7 +4849,7 @@
         <v>44152</v>
       </c>
       <c r="F11" s="100">
-        <f>IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <f t="shared" si="4"/>
         <v>44152</v>
       </c>
       <c r="G11" s="61">
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="63">
-        <f>IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J11" s="94"/>
@@ -4920,7 +4920,7 @@
       <c r="BM11" s="106"/>
       <c r="BN11" s="106"/>
     </row>
-    <row r="12" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
@@ -4933,7 +4933,7 @@
         <v>44152</v>
       </c>
       <c r="F12" s="100">
-        <f>IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <f t="shared" si="4"/>
         <v>44152</v>
       </c>
       <c r="G12" s="61">
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="63">
-        <f>IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J12" s="94"/>
@@ -5004,7 +5004,7 @@
       <c r="BM12" s="106"/>
       <c r="BN12" s="106"/>
     </row>
-    <row r="13" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
@@ -5017,7 +5017,7 @@
         <v>44153</v>
       </c>
       <c r="F13" s="100">
-        <f>IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
+        <f t="shared" si="4"/>
         <v>44153</v>
       </c>
       <c r="G13" s="61">
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="63">
-        <f>IF(OR(F13=0,E13=0)," - ",NETWORKDAYS(E13,F13))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J13" s="94"/>
@@ -5088,7 +5088,7 @@
       <c r="BM13" s="106"/>
       <c r="BN13" s="106"/>
     </row>
-    <row r="14" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.3</v>
@@ -5101,7 +5101,7 @@
         <v>44153</v>
       </c>
       <c r="F14" s="100">
-        <f>IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
+        <f t="shared" si="4"/>
         <v>44153</v>
       </c>
       <c r="G14" s="61">
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="63">
-        <f>IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J14" s="94"/>
@@ -5172,7 +5172,7 @@
       <c r="BM14" s="106"/>
       <c r="BN14" s="106"/>
     </row>
-    <row r="15" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.4</v>
@@ -5185,17 +5185,17 @@
         <v>44154</v>
       </c>
       <c r="F15" s="100">
-        <f>IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+        <f t="shared" si="4"/>
         <v>44156</v>
       </c>
       <c r="G15" s="61">
         <v>3</v>
       </c>
       <c r="H15" s="62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="63">
-        <f>IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J15" s="94"/>
@@ -5256,7 +5256,7 @@
       <c r="BM15" s="106"/>
       <c r="BN15" s="106"/>
     </row>
-    <row r="16" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.5</v>
@@ -5269,17 +5269,17 @@
         <v>44154</v>
       </c>
       <c r="F16" s="100">
-        <f>IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
+        <f t="shared" si="4"/>
         <v>44157</v>
       </c>
       <c r="G16" s="61">
         <v>4</v>
       </c>
       <c r="H16" s="62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="63">
-        <f>IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J16" s="94"/>
@@ -5340,7 +5340,7 @@
       <c r="BM16" s="106"/>
       <c r="BN16" s="106"/>
     </row>
-    <row r="17" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.6</v>
@@ -5353,17 +5353,17 @@
         <v>44156</v>
       </c>
       <c r="F17" s="100">
-        <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
+        <f t="shared" si="4"/>
         <v>44157</v>
       </c>
       <c r="G17" s="61">
         <v>2</v>
       </c>
       <c r="H17" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="63">
-        <f>IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J17" s="94"/>
@@ -5424,7 +5424,7 @@
       <c r="BM17" s="106"/>
       <c r="BN17" s="106"/>
     </row>
-    <row r="18" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -5435,13 +5435,13 @@
       <c r="D18" s="55"/>
       <c r="E18" s="101"/>
       <c r="F18" s="101" t="str">
-        <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G18" s="56"/>
       <c r="H18" s="57"/>
       <c r="I18" s="58" t="str">
-        <f>IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J18" s="95"/>
@@ -5502,9 +5502,9 @@
       <c r="BM18" s="107"/>
       <c r="BN18" s="107"/>
     </row>
-    <row r="19" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A19:A24" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B19" s="162" t="s">
@@ -5515,17 +5515,17 @@
         <v>44153</v>
       </c>
       <c r="F19" s="100">
-        <f>IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <f t="shared" si="4"/>
         <v>44153</v>
       </c>
       <c r="G19" s="61">
         <v>1</v>
       </c>
       <c r="H19" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="63">
-        <f>IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J19" s="94"/>
@@ -5586,9 +5586,9 @@
       <c r="BM19" s="106"/>
       <c r="BN19" s="106"/>
     </row>
-    <row r="20" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="6"/>
         <v>2.2</v>
       </c>
       <c r="B20" s="124" t="s">
@@ -5599,17 +5599,17 @@
         <v>44154</v>
       </c>
       <c r="F20" s="100">
-        <f>IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <f t="shared" si="4"/>
         <v>44154</v>
       </c>
       <c r="G20" s="61">
         <v>1</v>
       </c>
       <c r="H20" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="63">
-        <f>IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J20" s="94"/>
@@ -5670,9 +5670,9 @@
       <c r="BM20" s="106"/>
       <c r="BN20" s="106"/>
     </row>
-    <row r="21" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="6"/>
         <v>2.3</v>
       </c>
       <c r="B21" s="124" t="s">
@@ -5683,17 +5683,17 @@
         <v>44154</v>
       </c>
       <c r="F21" s="100">
-        <f>IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <f t="shared" si="4"/>
         <v>44154</v>
       </c>
       <c r="G21" s="61">
         <v>1</v>
       </c>
       <c r="H21" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="63">
-        <f>IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J21" s="94"/>
@@ -5754,9 +5754,9 @@
       <c r="BM21" s="106"/>
       <c r="BN21" s="106"/>
     </row>
-    <row r="22" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
       <c r="B22" s="124" t="s">
@@ -5767,17 +5767,17 @@
         <v>44154</v>
       </c>
       <c r="F22" s="100">
-        <f>IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
+        <f t="shared" si="4"/>
         <v>44155</v>
       </c>
       <c r="G22" s="61">
         <v>2</v>
       </c>
       <c r="H22" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="63">
-        <f>IF(OR(F22=0,E22=0)," - ",NETWORKDAYS(E22,F22))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J22" s="94"/>
@@ -5838,9 +5838,9 @@
       <c r="BM22" s="106"/>
       <c r="BN22" s="106"/>
     </row>
-    <row r="23" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="B23" s="124" t="s">
@@ -5851,17 +5851,17 @@
         <v>44155</v>
       </c>
       <c r="F23" s="100">
-        <f>IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+        <f t="shared" si="4"/>
         <v>44156</v>
       </c>
       <c r="G23" s="61">
         <v>2</v>
       </c>
       <c r="H23" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="63">
-        <f>IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J23" s="94"/>
@@ -5922,32 +5922,32 @@
       <c r="BM23" s="106"/>
       <c r="BN23" s="106"/>
     </row>
-    <row r="24" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="6"/>
         <v>2.6</v>
       </c>
       <c r="B24" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="173"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="99">
         <v>44155</v>
       </c>
       <c r="F24" s="100">
-        <f>IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+        <f t="shared" si="4"/>
         <v>44156</v>
       </c>
       <c r="G24" s="61">
         <v>2</v>
       </c>
       <c r="H24" s="62">
-        <v>0</v>
-      </c>
-      <c r="I24" s="174">
         <v>1</v>
       </c>
-      <c r="J24" s="175"/>
+      <c r="I24" s="164">
+        <v>1</v>
+      </c>
+      <c r="J24" s="165"/>
       <c r="K24" s="106"/>
       <c r="L24" s="106"/>
       <c r="M24" s="106"/>
@@ -6005,7 +6005,7 @@
       <c r="BM24" s="106"/>
       <c r="BN24" s="106"/>
     </row>
-    <row r="25" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -6016,13 +6016,13 @@
       <c r="D25" s="55"/>
       <c r="E25" s="101"/>
       <c r="F25" s="101" t="str">
-        <f t="shared" ref="F11:F35" si="4">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <f t="shared" ref="F25:F35" si="7">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G25" s="56"/>
       <c r="H25" s="57"/>
       <c r="I25" s="58" t="str">
-        <f t="shared" ref="I8:I38" si="5">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+        <f t="shared" ref="I25:I38" si="8">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J25" s="95"/>
@@ -6083,7 +6083,7 @@
       <c r="BM25" s="107"/>
       <c r="BN25" s="107"/>
     </row>
-    <row r="26" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -6096,7 +6096,7 @@
         <v>44157</v>
       </c>
       <c r="F26" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44159</v>
       </c>
       <c r="G26" s="61">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J26" s="94"/>
@@ -6167,7 +6167,7 @@
       <c r="BM26" s="106"/>
       <c r="BN26" s="106"/>
     </row>
-    <row r="27" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -6180,7 +6180,7 @@
         <v>44158</v>
       </c>
       <c r="F27" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44159</v>
       </c>
       <c r="G27" s="61">
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J27" s="94"/>
@@ -6251,7 +6251,7 @@
       <c r="BM27" s="106"/>
       <c r="BN27" s="106"/>
     </row>
-    <row r="28" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -6264,7 +6264,7 @@
         <v>44159</v>
       </c>
       <c r="F28" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44161</v>
       </c>
       <c r="G28" s="61">
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="J28" s="94"/>
@@ -6335,7 +6335,7 @@
       <c r="BM28" s="106"/>
       <c r="BN28" s="106"/>
     </row>
-    <row r="29" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
@@ -6348,7 +6348,7 @@
         <v>44160</v>
       </c>
       <c r="F29" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44162</v>
       </c>
       <c r="G29" s="61">
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="J29" s="94"/>
@@ -6419,7 +6419,7 @@
       <c r="BM29" s="106"/>
       <c r="BN29" s="106"/>
     </row>
-    <row r="30" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
@@ -6432,7 +6432,7 @@
         <v>44161</v>
       </c>
       <c r="F30" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44164</v>
       </c>
       <c r="G30" s="61">
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="J30" s="94"/>
@@ -6503,7 +6503,7 @@
       <c r="BM30" s="106"/>
       <c r="BN30" s="106"/>
     </row>
-    <row r="31" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -6514,13 +6514,13 @@
       <c r="D31" s="55"/>
       <c r="E31" s="101"/>
       <c r="F31" s="101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G31" s="56"/>
       <c r="H31" s="57"/>
       <c r="I31" s="58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J31" s="95"/>
@@ -6581,7 +6581,7 @@
       <c r="BM31" s="107"/>
       <c r="BN31" s="107"/>
     </row>
-    <row r="32" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J32" s="94"/>
@@ -6665,7 +6665,7 @@
       <c r="BM32" s="106"/>
       <c r="BN32" s="106"/>
     </row>
-    <row r="33" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -6678,7 +6678,7 @@
         <v>44168</v>
       </c>
       <c r="F33" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44168</v>
       </c>
       <c r="G33" s="61">
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J33" s="94"/>
@@ -6749,7 +6749,7 @@
       <c r="BM33" s="106"/>
       <c r="BN33" s="106"/>
     </row>
-    <row r="34" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
@@ -6762,7 +6762,7 @@
         <v>44169</v>
       </c>
       <c r="F34" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44169</v>
       </c>
       <c r="G34" s="61">
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J34" s="94"/>
@@ -6833,7 +6833,7 @@
       <c r="BM34" s="106"/>
       <c r="BN34" s="106"/>
     </row>
-    <row r="35" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.4</v>
@@ -6846,7 +6846,7 @@
         <v>44170</v>
       </c>
       <c r="F35" s="100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44170</v>
       </c>
       <c r="G35" s="61">
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J35" s="94"/>
@@ -6917,7 +6917,7 @@
       <c r="BM35" s="106"/>
       <c r="BN35" s="106"/>
     </row>
-    <row r="36" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.5</v>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J36" s="94"/>
@@ -7001,7 +7001,7 @@
       <c r="BM36" s="106"/>
       <c r="BN36" s="106"/>
     </row>
-    <row r="37" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="59"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -7011,7 +7011,7 @@
       <c r="G37" s="66"/>
       <c r="H37" s="67"/>
       <c r="I37" s="68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J37" s="96"/>
@@ -7072,7 +7072,7 @@
       <c r="BM37" s="106"/>
       <c r="BN37" s="106"/>
     </row>
-    <row r="38" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -7082,7 +7082,7 @@
       <c r="G38" s="66"/>
       <c r="H38" s="67"/>
       <c r="I38" s="68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J38" s="96"/>
@@ -7143,7 +7143,7 @@
       <c r="BM38" s="106"/>
       <c r="BN38" s="106"/>
     </row>
-    <row r="39" spans="1:66" s="74" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="70" t="s">
         <v>2</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="BM39" s="106"/>
       <c r="BN39" s="106"/>
     </row>
-    <row r="40" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="75" t="s">
         <v>40</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="BM40" s="106"/>
       <c r="BN40" s="106"/>
     </row>
-    <row r="41" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="128" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -7295,7 +7295,7 @@
       <c r="D41" s="78"/>
       <c r="E41" s="99"/>
       <c r="F41" s="100" t="str">
-        <f t="shared" ref="F41:F44" si="6">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+        <f t="shared" ref="F41:F44" si="9">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G41" s="61"/>
@@ -7362,7 +7362,7 @@
       <c r="BM41" s="106"/>
       <c r="BN41" s="106"/>
     </row>
-    <row r="42" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -7374,13 +7374,13 @@
       <c r="D42" s="78"/>
       <c r="E42" s="99"/>
       <c r="F42" s="100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G42" s="61"/>
       <c r="H42" s="62"/>
       <c r="I42" s="79" t="str">
-        <f t="shared" ref="I42:I44" si="7">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <f t="shared" ref="I42:I44" si="10">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J42" s="98"/>
@@ -7441,7 +7441,7 @@
       <c r="BM42" s="106"/>
       <c r="BN42" s="106"/>
     </row>
-    <row r="43" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -7453,13 +7453,13 @@
       <c r="D43" s="78"/>
       <c r="E43" s="99"/>
       <c r="F43" s="100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="61"/>
       <c r="H43" s="62"/>
       <c r="I43" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J43" s="98"/>
@@ -7520,7 +7520,7 @@
       <c r="BM43" s="106"/>
       <c r="BN43" s="106"/>
     </row>
-    <row r="44" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -7532,13 +7532,13 @@
       <c r="D44" s="78"/>
       <c r="E44" s="99"/>
       <c r="F44" s="100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G44" s="61"/>
       <c r="H44" s="62"/>
       <c r="I44" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J44" s="98"/>
@@ -7599,7 +7599,7 @@
       <c r="BM44" s="106"/>
       <c r="BN44" s="106"/>
     </row>
-    <row r="45" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="161" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
@@ -7673,6 +7673,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7683,15 +7692,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H44">
@@ -7736,7 +7736,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A37:B38 B32 B33:B35 B27:B29 A40:B40 B39 E18 E25 E31 E38:H40 G18:H18 G25:H25 G31:H35 H22 G41 G42:G43 G44 H20 H21 H26:H29 F37:H37" unlockedFormula="1"/>
+    <ignoredError sqref="H9 A37:B38 B32 B33:B35 B27:B29 A40:B40 B39 E18 E25 E31 E38:H40 G18:H18 G25:H25 G31:H35 G41 G42:G43 G44 H26:H29 F37:H37" unlockedFormula="1"/>
     <ignoredError sqref="A31 A25 A18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -7751,13 +7751,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -7804,175 +7804,175 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" style="16" customWidth="1"/>
-    <col min="4" max="7" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="5.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" style="16" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
         <v>25</v>
       </c>
@@ -7998,74 +7998,74 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="90.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="5.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="136" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="137" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="137" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="136" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="135" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="172" t="s">
+    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="172"/>
-    </row>
-    <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B13" s="175"/>
+    </row>
+    <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" s="132" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="140"/>
       <c r="B15" s="138" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="132" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="140"/>
       <c r="B16" s="139" t="s">
         <v>82</v>
@@ -8074,25 +8074,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="141"/>
       <c r="B17" s="139" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="141"/>
       <c r="B18" s="139" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="41" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="144"/>
       <c r="B19" s="139" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="132" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="140"/>
       <c r="B20" s="138" t="s">
         <v>83</v>
@@ -8101,153 +8101,153 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="141"/>
       <c r="B21" s="139" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="142"/>
       <c r="B22" s="143" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="142"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="172" t="s">
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="172"/>
-    </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="175"/>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="142"/>
       <c r="B25" s="139" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="142"/>
       <c r="B26" s="139"/>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="142"/>
       <c r="B27" s="160" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="142"/>
       <c r="B28" s="139" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="142"/>
       <c r="B29" s="139" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="142"/>
       <c r="B30" s="139"/>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="142"/>
       <c r="B31" s="160" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="142"/>
       <c r="B32" s="139" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="142"/>
       <c r="B33" s="139" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="142"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="142"/>
       <c r="B35" s="139" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="142"/>
       <c r="B36" s="145" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="142"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="172" t="s">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="172"/>
-    </row>
-    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="175"/>
+    </row>
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="139" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B41" s="139" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:2" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:2" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="139" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B45" s="139" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="139" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="172" t="s">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="172"/>
-    </row>
-    <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B49" s="175"/>
+    </row>
+    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="139" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="146" t="s">
         <v>13</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="146" t="s">
         <v>15</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="146" t="s">
         <v>17</v>
       </c>
@@ -8271,19 +8271,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="135"/>
       <c r="B55" s="139" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="135"/>
       <c r="B56" s="139" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="146" t="s">
         <v>19</v>
       </c>
@@ -8291,19 +8291,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="135"/>
       <c r="B58" s="139" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="135"/>
       <c r="B59" s="139" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="146" t="s">
         <v>21</v>
       </c>
@@ -8311,13 +8311,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="135"/>
       <c r="B61" s="139" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="146" t="s">
         <v>111</v>
       </c>
@@ -8325,36 +8325,36 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="147"/>
       <c r="B63" s="139" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="1:2" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="172" t="s">
+    <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="172"/>
-    </row>
-    <row r="66" spans="1:2" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B65" s="175"/>
+    </row>
+    <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="139" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="172" t="s">
+    <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="172"/>
-    </row>
-    <row r="69" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B68" s="175"/>
+    </row>
+    <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="154" t="s">
         <v>7</v>
       </c>
@@ -8362,17 +8362,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="148"/>
       <c r="B70" s="153" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="148"/>
       <c r="B71" s="149"/>
     </row>
-    <row r="72" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="154" t="s">
         <v>7</v>
       </c>
@@ -8380,17 +8380,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="148"/>
       <c r="B73" s="153" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="148"/>
       <c r="B74" s="149"/>
     </row>
-    <row r="75" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="154" t="s">
         <v>7</v>
       </c>
@@ -8398,17 +8398,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="148"/>
       <c r="B76" s="137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="147"/>
       <c r="B77" s="147"/>
     </row>
-    <row r="78" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="154" t="s">
         <v>7</v>
       </c>
@@ -8416,17 +8416,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="148"/>
       <c r="B79" s="137" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="147"/>
       <c r="B80" s="147"/>
     </row>
-    <row r="81" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="154" t="s">
         <v>7</v>
       </c>
@@ -8434,29 +8434,29 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="148"/>
       <c r="B82" s="152" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="148"/>
       <c r="B83" s="152" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="148"/>
       <c r="B84" s="152" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="147"/>
       <c r="B85" s="151"/>
     </row>
-    <row r="86" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="154" t="s">
         <v>7</v>
       </c>
@@ -8464,29 +8464,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="148"/>
       <c r="B87" s="137" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="148"/>
       <c r="B88" s="150" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="148"/>
       <c r="B89" s="156" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="147"/>
       <c r="B90" s="147"/>
     </row>
-    <row r="91" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="154" t="s">
         <v>7</v>
       </c>
@@ -8494,13 +8494,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="135"/>
       <c r="B92" s="152" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
         <v>56</v>
       </c>
@@ -8536,14 +8536,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="82.109375" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="5.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
@@ -8551,163 +8551,163 @@
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="45"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="46.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>

--- a/GANTT chart.xlsx
+++ b/GANTT chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Year2\Fall\CS2043\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\School Stuff\2nd Year\CS 2043\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524AC93F-4617-44D7-8EE8-359F6DF50B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37FB92E-EF89-4814-AFA2-2F5A0E42AF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
   <si>
     <t>WBS</t>
   </si>
@@ -1588,6 +1588,30 @@
   </si>
   <si>
     <t>Admin case</t>
+  </si>
+  <si>
+    <t>Elicitation</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Requirements Engineering</t>
+  </si>
+  <si>
+    <t>Negotiation</t>
+  </si>
+  <si>
+    <t>Web server</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Interface</t>
   </si>
 </sst>
 </file>
@@ -2948,24 +2972,6 @@
     <xf numFmtId="1" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2973,9 +2979,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3027,7 +3051,189 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="25">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3221,13 +3427,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>106680</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -3808,29 +4014,29 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN45"/>
+  <dimension ref="A1:BN48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.88671875" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.44140625" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="123" t="s">
         <v>1</v>
       </c>
@@ -3840,31 +4046,31 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="130"/>
-      <c r="K1" s="172" t="s">
+      <c r="K1" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-    </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+    </row>
+    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>139</v>
       </c>
@@ -3875,7 +4081,7 @@
       <c r="F2" s="158"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="47"/>
       <c r="C3" s="4"/>
@@ -3902,16 +4108,16 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="108"/>
       <c r="B4" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="174">
+      <c r="C4" s="171">
         <v>44151</v>
       </c>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="109"/>
       <c r="G4" s="112" t="s">
         <v>76</v>
@@ -3921,182 +4127,182 @@
       </c>
       <c r="I4" s="110"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="166" t="str">
+      <c r="K4" s="168" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="166" t="str">
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="168" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="166" t="str">
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="168" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="167"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="166" t="str">
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="169"/>
+      <c r="AC4" s="169"/>
+      <c r="AD4" s="169"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="168" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="167"/>
-      <c r="AH4" s="167"/>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="167"/>
-      <c r="AK4" s="167"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="166" t="str">
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="169"/>
+      <c r="AK4" s="169"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="168" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="167"/>
-      <c r="AP4" s="167"/>
-      <c r="AQ4" s="167"/>
-      <c r="AR4" s="167"/>
-      <c r="AS4" s="168"/>
-      <c r="AT4" s="166" t="str">
+      <c r="AN4" s="169"/>
+      <c r="AO4" s="169"/>
+      <c r="AP4" s="169"/>
+      <c r="AQ4" s="169"/>
+      <c r="AR4" s="169"/>
+      <c r="AS4" s="170"/>
+      <c r="AT4" s="168" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="167"/>
-      <c r="AV4" s="167"/>
-      <c r="AW4" s="167"/>
-      <c r="AX4" s="167"/>
-      <c r="AY4" s="167"/>
-      <c r="AZ4" s="168"/>
-      <c r="BA4" s="166" t="str">
+      <c r="AU4" s="169"/>
+      <c r="AV4" s="169"/>
+      <c r="AW4" s="169"/>
+      <c r="AX4" s="169"/>
+      <c r="AY4" s="169"/>
+      <c r="AZ4" s="170"/>
+      <c r="BA4" s="168" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="167"/>
-      <c r="BC4" s="167"/>
-      <c r="BD4" s="167"/>
-      <c r="BE4" s="167"/>
-      <c r="BF4" s="167"/>
-      <c r="BG4" s="168"/>
-      <c r="BH4" s="166" t="str">
+      <c r="BB4" s="169"/>
+      <c r="BC4" s="169"/>
+      <c r="BD4" s="169"/>
+      <c r="BE4" s="169"/>
+      <c r="BF4" s="169"/>
+      <c r="BG4" s="170"/>
+      <c r="BH4" s="168" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="167"/>
-      <c r="BJ4" s="167"/>
-      <c r="BK4" s="167"/>
-      <c r="BL4" s="167"/>
-      <c r="BM4" s="167"/>
-      <c r="BN4" s="168"/>
-    </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI4" s="169"/>
+      <c r="BJ4" s="169"/>
+      <c r="BK4" s="169"/>
+      <c r="BL4" s="169"/>
+      <c r="BM4" s="169"/>
+      <c r="BN4" s="170"/>
+    </row>
+    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="108"/>
       <c r="B5" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="169">
+      <c r="K5" s="172">
         <f>K6</f>
         <v>44151</v>
       </c>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="169">
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="172">
         <f>R6</f>
         <v>44158</v>
       </c>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="169">
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="172">
         <f>Y6</f>
         <v>44165</v>
       </c>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="169">
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="172">
         <f>AF6</f>
         <v>44172</v>
       </c>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
-      <c r="AI5" s="170"/>
-      <c r="AJ5" s="170"/>
-      <c r="AK5" s="170"/>
-      <c r="AL5" s="171"/>
-      <c r="AM5" s="169">
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="174"/>
+      <c r="AM5" s="172">
         <f>AM6</f>
         <v>44179</v>
       </c>
-      <c r="AN5" s="170"/>
-      <c r="AO5" s="170"/>
-      <c r="AP5" s="170"/>
-      <c r="AQ5" s="170"/>
-      <c r="AR5" s="170"/>
-      <c r="AS5" s="171"/>
-      <c r="AT5" s="169">
+      <c r="AN5" s="173"/>
+      <c r="AO5" s="173"/>
+      <c r="AP5" s="173"/>
+      <c r="AQ5" s="173"/>
+      <c r="AR5" s="173"/>
+      <c r="AS5" s="174"/>
+      <c r="AT5" s="172">
         <f>AT6</f>
         <v>44186</v>
       </c>
-      <c r="AU5" s="170"/>
-      <c r="AV5" s="170"/>
-      <c r="AW5" s="170"/>
-      <c r="AX5" s="170"/>
-      <c r="AY5" s="170"/>
-      <c r="AZ5" s="171"/>
-      <c r="BA5" s="169">
+      <c r="AU5" s="173"/>
+      <c r="AV5" s="173"/>
+      <c r="AW5" s="173"/>
+      <c r="AX5" s="173"/>
+      <c r="AY5" s="173"/>
+      <c r="AZ5" s="174"/>
+      <c r="BA5" s="172">
         <f>BA6</f>
         <v>44193</v>
       </c>
-      <c r="BB5" s="170"/>
-      <c r="BC5" s="170"/>
-      <c r="BD5" s="170"/>
-      <c r="BE5" s="170"/>
-      <c r="BF5" s="170"/>
-      <c r="BG5" s="171"/>
-      <c r="BH5" s="169">
+      <c r="BB5" s="173"/>
+      <c r="BC5" s="173"/>
+      <c r="BD5" s="173"/>
+      <c r="BE5" s="173"/>
+      <c r="BF5" s="173"/>
+      <c r="BG5" s="174"/>
+      <c r="BH5" s="172">
         <f>BH6</f>
         <v>44200</v>
       </c>
-      <c r="BI5" s="170"/>
-      <c r="BJ5" s="170"/>
-      <c r="BK5" s="170"/>
-      <c r="BL5" s="170"/>
-      <c r="BM5" s="170"/>
-      <c r="BN5" s="171"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BI5" s="173"/>
+      <c r="BJ5" s="173"/>
+      <c r="BK5" s="173"/>
+      <c r="BL5" s="173"/>
+      <c r="BM5" s="173"/>
+      <c r="BN5" s="174"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -4332,7 +4538,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="122" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="122" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="114" t="s">
         <v>0</v>
       </c>
@@ -4586,7 +4792,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -4665,7 +4871,7 @@
       <c r="BM8" s="105"/>
       <c r="BN8" s="105"/>
     </row>
-    <row r="9" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -4752,7 +4958,7 @@
       <c r="BM9" s="106"/>
       <c r="BN9" s="106"/>
     </row>
-    <row r="10" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.2</v>
@@ -4836,7 +5042,7 @@
       <c r="BM10" s="106"/>
       <c r="BN10" s="106"/>
     </row>
-    <row r="11" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.3</v>
@@ -4920,7 +5126,7 @@
       <c r="BM11" s="106"/>
       <c r="BN11" s="106"/>
     </row>
-    <row r="12" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
@@ -5004,7 +5210,7 @@
       <c r="BM12" s="106"/>
       <c r="BN12" s="106"/>
     </row>
-    <row r="13" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
@@ -5088,7 +5294,7 @@
       <c r="BM13" s="106"/>
       <c r="BN13" s="106"/>
     </row>
-    <row r="14" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.3</v>
@@ -5172,7 +5378,7 @@
       <c r="BM14" s="106"/>
       <c r="BN14" s="106"/>
     </row>
-    <row r="15" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.4</v>
@@ -5256,7 +5462,7 @@
       <c r="BM15" s="106"/>
       <c r="BN15" s="106"/>
     </row>
-    <row r="16" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.5</v>
@@ -5340,7 +5546,7 @@
       <c r="BM16" s="106"/>
       <c r="BN16" s="106"/>
     </row>
-    <row r="17" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.6</v>
@@ -5424,7 +5630,7 @@
       <c r="BM17" s="106"/>
       <c r="BN17" s="106"/>
     </row>
-    <row r="18" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -5502,7 +5708,7 @@
       <c r="BM18" s="107"/>
       <c r="BN18" s="107"/>
     </row>
-    <row r="19" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="str">
         <f t="shared" ref="A19:A24" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -5586,7 +5792,7 @@
       <c r="BM19" s="106"/>
       <c r="BN19" s="106"/>
     </row>
-    <row r="20" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="str">
         <f t="shared" si="6"/>
         <v>2.2</v>
@@ -5670,7 +5876,7 @@
       <c r="BM20" s="106"/>
       <c r="BN20" s="106"/>
     </row>
-    <row r="21" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="str">
         <f t="shared" si="6"/>
         <v>2.3</v>
@@ -5754,7 +5960,7 @@
       <c r="BM21" s="106"/>
       <c r="BN21" s="106"/>
     </row>
-    <row r="22" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="str">
         <f t="shared" si="6"/>
         <v>2.4</v>
@@ -5838,7 +6044,7 @@
       <c r="BM22" s="106"/>
       <c r="BN22" s="106"/>
     </row>
-    <row r="23" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="str">
         <f t="shared" si="6"/>
         <v>2.5</v>
@@ -5922,7 +6128,7 @@
       <c r="BM23" s="106"/>
       <c r="BN23" s="106"/>
     </row>
-    <row r="24" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="str">
         <f t="shared" si="6"/>
         <v>2.6</v>
@@ -6005,7 +6211,7 @@
       <c r="BM24" s="106"/>
       <c r="BN24" s="106"/>
     </row>
-    <row r="25" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -6016,13 +6222,13 @@
       <c r="D25" s="55"/>
       <c r="E25" s="101"/>
       <c r="F25" s="101" t="str">
-        <f t="shared" ref="F25:F35" si="7">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <f t="shared" ref="F25:F38" si="7">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G25" s="56"/>
       <c r="H25" s="57"/>
       <c r="I25" s="58" t="str">
-        <f t="shared" ref="I25:I38" si="8">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+        <f t="shared" ref="I25:I41" si="8">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J25" s="95"/>
@@ -6083,31 +6289,31 @@
       <c r="BM25" s="107"/>
       <c r="BN25" s="107"/>
     </row>
-    <row r="26" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="D26" s="125"/>
       <c r="E26" s="99">
-        <v>44157</v>
+        <v>44166</v>
       </c>
       <c r="F26" s="100">
         <f t="shared" si="7"/>
-        <v>44159</v>
+        <v>44174</v>
       </c>
       <c r="G26" s="61">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H26" s="62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="106"/>
@@ -6167,27 +6373,27 @@
       <c r="BM26" s="106"/>
       <c r="BN26" s="106"/>
     </row>
-    <row r="27" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B27" s="124" t="s">
-        <v>9</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B27" s="126" t="s">
+        <v>159</v>
       </c>
       <c r="D27" s="125"/>
       <c r="E27" s="99">
-        <v>44158</v>
+        <v>44166</v>
       </c>
       <c r="F27" s="100">
         <f t="shared" si="7"/>
-        <v>44159</v>
+        <v>44167</v>
       </c>
       <c r="G27" s="61">
         <v>2</v>
       </c>
       <c r="H27" s="62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" si="8"/>
@@ -6251,31 +6457,31 @@
       <c r="BM27" s="106"/>
       <c r="BN27" s="106"/>
     </row>
-    <row r="28" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B28" s="124" t="s">
-        <v>9</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.2</v>
+      </c>
+      <c r="B28" s="126" t="s">
+        <v>160</v>
       </c>
       <c r="D28" s="125"/>
       <c r="E28" s="99">
-        <v>44159</v>
+        <v>44167</v>
       </c>
       <c r="F28" s="100">
         <f t="shared" si="7"/>
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="G28" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="106"/>
@@ -6335,31 +6541,31 @@
       <c r="BM28" s="106"/>
       <c r="BN28" s="106"/>
     </row>
-    <row r="29" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B29" s="124" t="s">
-        <v>9</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.3</v>
+      </c>
+      <c r="B29" s="126" t="s">
+        <v>161</v>
       </c>
       <c r="D29" s="125"/>
       <c r="E29" s="99">
-        <v>44160</v>
+        <v>44168</v>
       </c>
       <c r="F29" s="100">
         <f t="shared" si="7"/>
-        <v>44162</v>
+        <v>44169</v>
       </c>
       <c r="G29" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" s="94"/>
       <c r="K29" s="106"/>
@@ -6419,31 +6625,31 @@
       <c r="BM29" s="106"/>
       <c r="BN29" s="106"/>
     </row>
-    <row r="30" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B30" s="124" t="s">
-        <v>9</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.4</v>
+      </c>
+      <c r="B30" s="126" t="s">
+        <v>163</v>
       </c>
       <c r="D30" s="125"/>
       <c r="E30" s="99">
-        <v>44161</v>
+        <v>44169</v>
       </c>
       <c r="F30" s="100">
         <f t="shared" si="7"/>
-        <v>44164</v>
+        <v>44170</v>
       </c>
       <c r="G30" s="61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" s="62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="106"/>
@@ -6503,109 +6709,115 @@
       <c r="BM30" s="106"/>
       <c r="BN30" s="106"/>
     </row>
-    <row r="31" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101" t="str">
+    <row r="31" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="str">
+        <f t="shared" ref="A31:A33" si="9">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B31" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="125"/>
+      <c r="E31" s="99">
+        <v>44167</v>
+      </c>
+      <c r="F31" s="100">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58" t="str">
+        <v>44169</v>
+      </c>
+      <c r="G31" s="61">
+        <v>3</v>
+      </c>
+      <c r="H31" s="62">
+        <v>1</v>
+      </c>
+      <c r="I31" s="63">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J31" s="95"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="107"/>
-      <c r="X31" s="107"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="107"/>
-      <c r="AA31" s="107"/>
-      <c r="AB31" s="107"/>
-      <c r="AC31" s="107"/>
-      <c r="AD31" s="107"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="107"/>
-      <c r="AH31" s="107"/>
-      <c r="AI31" s="107"/>
-      <c r="AJ31" s="107"/>
-      <c r="AK31" s="107"/>
-      <c r="AL31" s="107"/>
-      <c r="AM31" s="107"/>
-      <c r="AN31" s="107"/>
-      <c r="AO31" s="107"/>
-      <c r="AP31" s="107"/>
-      <c r="AQ31" s="107"/>
-      <c r="AR31" s="107"/>
-      <c r="AS31" s="107"/>
-      <c r="AT31" s="107"/>
-      <c r="AU31" s="107"/>
-      <c r="AV31" s="107"/>
-      <c r="AW31" s="107"/>
-      <c r="AX31" s="107"/>
-      <c r="AY31" s="107"/>
-      <c r="AZ31" s="107"/>
-      <c r="BA31" s="107"/>
-      <c r="BB31" s="107"/>
-      <c r="BC31" s="107"/>
-      <c r="BD31" s="107"/>
-      <c r="BE31" s="107"/>
-      <c r="BF31" s="107"/>
-      <c r="BG31" s="107"/>
-      <c r="BH31" s="107"/>
-      <c r="BI31" s="107"/>
-      <c r="BJ31" s="107"/>
-      <c r="BK31" s="107"/>
-      <c r="BL31" s="107"/>
-      <c r="BM31" s="107"/>
-      <c r="BN31" s="107"/>
-    </row>
-    <row r="32" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="106"/>
+      <c r="AJ31" s="106"/>
+      <c r="AK31" s="106"/>
+      <c r="AL31" s="106"/>
+      <c r="AM31" s="106"/>
+      <c r="AN31" s="106"/>
+      <c r="AO31" s="106"/>
+      <c r="AP31" s="106"/>
+      <c r="AQ31" s="106"/>
+      <c r="AR31" s="106"/>
+      <c r="AS31" s="106"/>
+      <c r="AT31" s="106"/>
+      <c r="AU31" s="106"/>
+      <c r="AV31" s="106"/>
+      <c r="AW31" s="106"/>
+      <c r="AX31" s="106"/>
+      <c r="AY31" s="106"/>
+      <c r="AZ31" s="106"/>
+      <c r="BA31" s="106"/>
+      <c r="BB31" s="106"/>
+      <c r="BC31" s="106"/>
+      <c r="BD31" s="106"/>
+      <c r="BE31" s="106"/>
+      <c r="BF31" s="106"/>
+      <c r="BG31" s="106"/>
+      <c r="BH31" s="106"/>
+      <c r="BI31" s="106"/>
+      <c r="BJ31" s="106"/>
+      <c r="BK31" s="106"/>
+      <c r="BL31" s="106"/>
+      <c r="BM31" s="106"/>
+      <c r="BN31" s="106"/>
+    </row>
+    <row r="32" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <f t="shared" si="9"/>
+        <v>3.3</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="D32" s="125"/>
       <c r="E32" s="99">
         <v>44167</v>
       </c>
       <c r="F32" s="100">
-        <f>IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
-        <v>44167</v>
+        <f t="shared" ref="F32" si="10">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>44171</v>
       </c>
       <c r="G32" s="61">
+        <v>5</v>
+      </c>
+      <c r="H32" s="62">
         <v>1</v>
       </c>
-      <c r="H32" s="62">
-        <v>0</v>
-      </c>
       <c r="I32" s="63">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="I32" si="11">IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
+        <v>3</v>
       </c>
       <c r="J32" s="94"/>
       <c r="K32" s="106"/>
@@ -6665,31 +6877,31 @@
       <c r="BM32" s="106"/>
       <c r="BN32" s="106"/>
     </row>
-    <row r="33" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <f t="shared" si="9"/>
+        <v>3.4</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="D33" s="125"/>
       <c r="E33" s="99">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="F33" s="100">
-        <f t="shared" si="7"/>
-        <v>44168</v>
+        <f t="shared" ref="F33" si="12">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <v>44170</v>
       </c>
       <c r="G33" s="61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33" s="62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I33" s="63">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="I33" si="13">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
+        <v>3</v>
       </c>
       <c r="J33" s="94"/>
       <c r="K33" s="106"/>
@@ -6749,115 +6961,109 @@
       <c r="BM33" s="106"/>
       <c r="BN33" s="106"/>
     </row>
-    <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="str">
+    <row r="34" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="55"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J34" s="95"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="107"/>
+      <c r="AF34" s="107"/>
+      <c r="AG34" s="107"/>
+      <c r="AH34" s="107"/>
+      <c r="AI34" s="107"/>
+      <c r="AJ34" s="107"/>
+      <c r="AK34" s="107"/>
+      <c r="AL34" s="107"/>
+      <c r="AM34" s="107"/>
+      <c r="AN34" s="107"/>
+      <c r="AO34" s="107"/>
+      <c r="AP34" s="107"/>
+      <c r="AQ34" s="107"/>
+      <c r="AR34" s="107"/>
+      <c r="AS34" s="107"/>
+      <c r="AT34" s="107"/>
+      <c r="AU34" s="107"/>
+      <c r="AV34" s="107"/>
+      <c r="AW34" s="107"/>
+      <c r="AX34" s="107"/>
+      <c r="AY34" s="107"/>
+      <c r="AZ34" s="107"/>
+      <c r="BA34" s="107"/>
+      <c r="BB34" s="107"/>
+      <c r="BC34" s="107"/>
+      <c r="BD34" s="107"/>
+      <c r="BE34" s="107"/>
+      <c r="BF34" s="107"/>
+      <c r="BG34" s="107"/>
+      <c r="BH34" s="107"/>
+      <c r="BI34" s="107"/>
+      <c r="BJ34" s="107"/>
+      <c r="BK34" s="107"/>
+      <c r="BL34" s="107"/>
+      <c r="BM34" s="107"/>
+      <c r="BN34" s="107"/>
+    </row>
+    <row r="35" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B34" s="124" t="s">
+        <v>4.1</v>
+      </c>
+      <c r="B35" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="99">
-        <v>44169</v>
-      </c>
-      <c r="F34" s="100">
-        <f t="shared" si="7"/>
-        <v>44169</v>
-      </c>
-      <c r="G34" s="61">
+      <c r="D35" s="125"/>
+      <c r="E35" s="99">
+        <v>44167</v>
+      </c>
+      <c r="F35" s="100">
+        <f>IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <v>44167</v>
+      </c>
+      <c r="G35" s="61">
         <v>1</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H35" s="62">
         <v>0</v>
       </c>
-      <c r="I34" s="63">
+      <c r="I35" s="63">
         <f t="shared" si="8"/>
         <v>1</v>
-      </c>
-      <c r="J34" s="94"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="106"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="106"/>
-      <c r="AD34" s="106"/>
-      <c r="AE34" s="106"/>
-      <c r="AF34" s="106"/>
-      <c r="AG34" s="106"/>
-      <c r="AH34" s="106"/>
-      <c r="AI34" s="106"/>
-      <c r="AJ34" s="106"/>
-      <c r="AK34" s="106"/>
-      <c r="AL34" s="106"/>
-      <c r="AM34" s="106"/>
-      <c r="AN34" s="106"/>
-      <c r="AO34" s="106"/>
-      <c r="AP34" s="106"/>
-      <c r="AQ34" s="106"/>
-      <c r="AR34" s="106"/>
-      <c r="AS34" s="106"/>
-      <c r="AT34" s="106"/>
-      <c r="AU34" s="106"/>
-      <c r="AV34" s="106"/>
-      <c r="AW34" s="106"/>
-      <c r="AX34" s="106"/>
-      <c r="AY34" s="106"/>
-      <c r="AZ34" s="106"/>
-      <c r="BA34" s="106"/>
-      <c r="BB34" s="106"/>
-      <c r="BC34" s="106"/>
-      <c r="BD34" s="106"/>
-      <c r="BE34" s="106"/>
-      <c r="BF34" s="106"/>
-      <c r="BG34" s="106"/>
-      <c r="BH34" s="106"/>
-      <c r="BI34" s="106"/>
-      <c r="BJ34" s="106"/>
-      <c r="BK34" s="106"/>
-      <c r="BL34" s="106"/>
-      <c r="BM34" s="106"/>
-      <c r="BN34" s="106"/>
-    </row>
-    <row r="35" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B35" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="99">
-        <v>44170</v>
-      </c>
-      <c r="F35" s="100">
-        <f t="shared" si="7"/>
-        <v>44170</v>
-      </c>
-      <c r="G35" s="61">
-        <v>1</v>
-      </c>
-      <c r="H35" s="62">
-        <v>0</v>
-      </c>
-      <c r="I35" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
       <c r="J35" s="94"/>
       <c r="K35" s="106"/>
@@ -6917,21 +7123,21 @@
       <c r="BM35" s="106"/>
       <c r="BN35" s="106"/>
     </row>
-    <row r="36" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="B36" s="124" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="125"/>
       <c r="E36" s="99">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="F36" s="100">
-        <f>IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
-        <v>44170</v>
+        <f t="shared" si="7"/>
+        <v>44168</v>
       </c>
       <c r="G36" s="61">
         <v>1</v>
@@ -6941,7 +7147,7 @@
       </c>
       <c r="I36" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="94"/>
       <c r="K36" s="106"/>
@@ -7001,20 +7207,33 @@
       <c r="BM36" s="106"/>
       <c r="BN36" s="106"/>
     </row>
-    <row r="37" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="68" t="str">
+    <row r="37" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B37" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="125"/>
+      <c r="E37" s="99">
+        <v>44169</v>
+      </c>
+      <c r="F37" s="100">
+        <f t="shared" si="7"/>
+        <v>44169</v>
+      </c>
+      <c r="G37" s="61">
+        <v>1</v>
+      </c>
+      <c r="H37" s="62">
+        <v>0</v>
+      </c>
+      <c r="I37" s="63">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J37" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="94"/>
       <c r="K37" s="106"/>
       <c r="L37" s="106"/>
       <c r="M37" s="106"/>
@@ -7072,20 +7291,33 @@
       <c r="BM37" s="106"/>
       <c r="BN37" s="106"/>
     </row>
-    <row r="38" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="68" t="str">
+    <row r="38" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B38" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="125"/>
+      <c r="E38" s="99">
+        <v>44170</v>
+      </c>
+      <c r="F38" s="100">
+        <f t="shared" si="7"/>
+        <v>44170</v>
+      </c>
+      <c r="G38" s="61">
+        <v>1</v>
+      </c>
+      <c r="H38" s="62">
+        <v>0</v>
+      </c>
+      <c r="I38" s="63">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J38" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="94"/>
       <c r="K38" s="106"/>
       <c r="L38" s="106"/>
       <c r="M38" s="106"/>
@@ -7143,19 +7375,33 @@
       <c r="BM38" s="106"/>
       <c r="BN38" s="106"/>
     </row>
-    <row r="39" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="97"/>
+    <row r="39" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B39" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="125"/>
+      <c r="E39" s="99">
+        <v>44170</v>
+      </c>
+      <c r="F39" s="100">
+        <f>IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v>44170</v>
+      </c>
+      <c r="G39" s="61">
+        <v>1</v>
+      </c>
+      <c r="H39" s="62">
+        <v>0</v>
+      </c>
+      <c r="I39" s="63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="94"/>
       <c r="K39" s="106"/>
       <c r="L39" s="106"/>
       <c r="M39" s="106"/>
@@ -7213,19 +7459,20 @@
       <c r="BM39" s="106"/>
       <c r="BN39" s="106"/>
     </row>
-    <row r="40" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="97"/>
+    <row r="40" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="68" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J40" s="96"/>
       <c r="K40" s="106"/>
       <c r="L40" s="106"/>
       <c r="M40" s="106"/>
@@ -7283,28 +7530,20 @@
       <c r="BM40" s="106"/>
       <c r="BN40" s="106"/>
     </row>
-    <row r="41" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="128" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B41" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="100" t="str">
-        <f t="shared" ref="F41:F44" si="9">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+    <row r="41" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="68" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="79" t="str">
-        <f>IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J41" s="98"/>
+      <c r="J41" s="96"/>
       <c r="K41" s="106"/>
       <c r="L41" s="106"/>
       <c r="M41" s="106"/>
@@ -7362,28 +7601,19 @@
       <c r="BM41" s="106"/>
       <c r="BN41" s="106"/>
     </row>
-    <row r="42" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B42" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="100" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="79" t="str">
-        <f t="shared" ref="I42:I44" si="10">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J42" s="98"/>
+    <row r="42" spans="1:66" s="74" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A42" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="97"/>
       <c r="K42" s="106"/>
       <c r="L42" s="106"/>
       <c r="M42" s="106"/>
@@ -7441,28 +7671,19 @@
       <c r="BM42" s="106"/>
       <c r="BN42" s="106"/>
     </row>
-    <row r="43" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B43" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="100" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G43" s="61"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="79" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J43" s="98"/>
+    <row r="43" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A43" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="97"/>
       <c r="K43" s="106"/>
       <c r="L43" s="106"/>
       <c r="M43" s="106"/>
@@ -7520,25 +7741,25 @@
       <c r="BM43" s="106"/>
       <c r="BN43" s="106"/>
     </row>
-    <row r="44" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B44" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="80"/>
+    <row r="44" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A44" s="128" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B44" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="77"/>
       <c r="D44" s="78"/>
       <c r="E44" s="99"/>
       <c r="F44" s="100" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F44:F47" si="14">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G44" s="61"/>
       <c r="H44" s="62"/>
       <c r="I44" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J44" s="98"/>
@@ -7599,89 +7820,317 @@
       <c r="BM44" s="106"/>
       <c r="BN44" s="106"/>
     </row>
-    <row r="45" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="161" t="str">
+    <row r="45" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="80"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="100" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G45" s="61"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="79" t="str">
+        <f t="shared" ref="I45:I47" si="15">IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J45" s="98"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="106"/>
+      <c r="S45" s="106"/>
+      <c r="T45" s="106"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="106"/>
+      <c r="Y45" s="106"/>
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="106"/>
+      <c r="AB45" s="106"/>
+      <c r="AC45" s="106"/>
+      <c r="AD45" s="106"/>
+      <c r="AE45" s="106"/>
+      <c r="AF45" s="106"/>
+      <c r="AG45" s="106"/>
+      <c r="AH45" s="106"/>
+      <c r="AI45" s="106"/>
+      <c r="AJ45" s="106"/>
+      <c r="AK45" s="106"/>
+      <c r="AL45" s="106"/>
+      <c r="AM45" s="106"/>
+      <c r="AN45" s="106"/>
+      <c r="AO45" s="106"/>
+      <c r="AP45" s="106"/>
+      <c r="AQ45" s="106"/>
+      <c r="AR45" s="106"/>
+      <c r="AS45" s="106"/>
+      <c r="AT45" s="106"/>
+      <c r="AU45" s="106"/>
+      <c r="AV45" s="106"/>
+      <c r="AW45" s="106"/>
+      <c r="AX45" s="106"/>
+      <c r="AY45" s="106"/>
+      <c r="AZ45" s="106"/>
+      <c r="BA45" s="106"/>
+      <c r="BB45" s="106"/>
+      <c r="BC45" s="106"/>
+      <c r="BD45" s="106"/>
+      <c r="BE45" s="106"/>
+      <c r="BF45" s="106"/>
+      <c r="BG45" s="106"/>
+      <c r="BH45" s="106"/>
+      <c r="BI45" s="106"/>
+      <c r="BJ45" s="106"/>
+      <c r="BK45" s="106"/>
+      <c r="BL45" s="106"/>
+      <c r="BM45" s="106"/>
+      <c r="BN45" s="106"/>
+    </row>
+    <row r="46" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="80"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="100" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G46" s="61"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="79" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J46" s="98"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="106"/>
+      <c r="M46" s="106"/>
+      <c r="N46" s="106"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="106"/>
+      <c r="T46" s="106"/>
+      <c r="U46" s="106"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" s="106"/>
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="106"/>
+      <c r="AC46" s="106"/>
+      <c r="AD46" s="106"/>
+      <c r="AE46" s="106"/>
+      <c r="AF46" s="106"/>
+      <c r="AG46" s="106"/>
+      <c r="AH46" s="106"/>
+      <c r="AI46" s="106"/>
+      <c r="AJ46" s="106"/>
+      <c r="AK46" s="106"/>
+      <c r="AL46" s="106"/>
+      <c r="AM46" s="106"/>
+      <c r="AN46" s="106"/>
+      <c r="AO46" s="106"/>
+      <c r="AP46" s="106"/>
+      <c r="AQ46" s="106"/>
+      <c r="AR46" s="106"/>
+      <c r="AS46" s="106"/>
+      <c r="AT46" s="106"/>
+      <c r="AU46" s="106"/>
+      <c r="AV46" s="106"/>
+      <c r="AW46" s="106"/>
+      <c r="AX46" s="106"/>
+      <c r="AY46" s="106"/>
+      <c r="AZ46" s="106"/>
+      <c r="BA46" s="106"/>
+      <c r="BB46" s="106"/>
+      <c r="BC46" s="106"/>
+      <c r="BD46" s="106"/>
+      <c r="BE46" s="106"/>
+      <c r="BF46" s="106"/>
+      <c r="BG46" s="106"/>
+      <c r="BH46" s="106"/>
+      <c r="BI46" s="106"/>
+      <c r="BJ46" s="106"/>
+      <c r="BK46" s="106"/>
+      <c r="BL46" s="106"/>
+      <c r="BM46" s="106"/>
+      <c r="BN46" s="106"/>
+    </row>
+    <row r="47" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="80"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G47" s="61"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="79" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J47" s="98"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="106"/>
+      <c r="S47" s="106"/>
+      <c r="T47" s="106"/>
+      <c r="U47" s="106"/>
+      <c r="V47" s="106"/>
+      <c r="W47" s="106"/>
+      <c r="X47" s="106"/>
+      <c r="Y47" s="106"/>
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="106"/>
+      <c r="AB47" s="106"/>
+      <c r="AC47" s="106"/>
+      <c r="AD47" s="106"/>
+      <c r="AE47" s="106"/>
+      <c r="AF47" s="106"/>
+      <c r="AG47" s="106"/>
+      <c r="AH47" s="106"/>
+      <c r="AI47" s="106"/>
+      <c r="AJ47" s="106"/>
+      <c r="AK47" s="106"/>
+      <c r="AL47" s="106"/>
+      <c r="AM47" s="106"/>
+      <c r="AN47" s="106"/>
+      <c r="AO47" s="106"/>
+      <c r="AP47" s="106"/>
+      <c r="AQ47" s="106"/>
+      <c r="AR47" s="106"/>
+      <c r="AS47" s="106"/>
+      <c r="AT47" s="106"/>
+      <c r="AU47" s="106"/>
+      <c r="AV47" s="106"/>
+      <c r="AW47" s="106"/>
+      <c r="AX47" s="106"/>
+      <c r="AY47" s="106"/>
+      <c r="AZ47" s="106"/>
+      <c r="BA47" s="106"/>
+      <c r="BB47" s="106"/>
+      <c r="BC47" s="106"/>
+      <c r="BD47" s="106"/>
+      <c r="BE47" s="106"/>
+      <c r="BF47" s="106"/>
+      <c r="BG47" s="106"/>
+      <c r="BH47" s="106"/>
+      <c r="BI47" s="106"/>
+      <c r="BJ47" s="106"/>
+      <c r="BK47" s="106"/>
+      <c r="BL47" s="106"/>
+      <c r="BM47" s="106"/>
+      <c r="BN47" s="106"/>
+    </row>
+    <row r="48" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="161" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
-      <c r="AH45" s="30"/>
-      <c r="AI45" s="30"/>
-      <c r="AJ45" s="30"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="30"/>
-      <c r="AM45" s="30"/>
-      <c r="AN45" s="30"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="30"/>
-      <c r="AR45" s="30"/>
-      <c r="AS45" s="30"/>
-      <c r="AT45" s="30"/>
-      <c r="AU45" s="30"/>
-      <c r="AV45" s="30"/>
-      <c r="AW45" s="30"/>
-      <c r="AX45" s="30"/>
-      <c r="AY45" s="30"/>
-      <c r="AZ45" s="30"/>
-      <c r="BA45" s="30"/>
-      <c r="BB45" s="30"/>
-      <c r="BC45" s="30"/>
-      <c r="BD45" s="30"/>
-      <c r="BE45" s="30"/>
-      <c r="BF45" s="30"/>
-      <c r="BG45" s="30"/>
-      <c r="BH45" s="30"/>
-      <c r="BI45" s="30"/>
-      <c r="BJ45" s="30"/>
-      <c r="BK45" s="30"/>
-      <c r="BL45" s="30"/>
-      <c r="BM45" s="30"/>
-      <c r="BN45" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="30"/>
+      <c r="AM48" s="30"/>
+      <c r="AN48" s="30"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="30"/>
+      <c r="AQ48" s="30"/>
+      <c r="AR48" s="30"/>
+      <c r="AS48" s="30"/>
+      <c r="AT48" s="30"/>
+      <c r="AU48" s="30"/>
+      <c r="AV48" s="30"/>
+      <c r="AW48" s="30"/>
+      <c r="AX48" s="30"/>
+      <c r="AY48" s="30"/>
+      <c r="AZ48" s="30"/>
+      <c r="BA48" s="30"/>
+      <c r="BB48" s="30"/>
+      <c r="BC48" s="30"/>
+      <c r="BD48" s="30"/>
+      <c r="BE48" s="30"/>
+      <c r="BF48" s="30"/>
+      <c r="BG48" s="30"/>
+      <c r="BH48" s="30"/>
+      <c r="BI48" s="30"/>
+      <c r="BJ48" s="30"/>
+      <c r="BK48" s="30"/>
+      <c r="BL48" s="30"/>
+      <c r="BM48" s="30"/>
+      <c r="BN48" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7692,10 +8141,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H44">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H8:H26 H34:H47">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7709,20 +8167,209 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="3" priority="45">
+    <cfRule type="expression" dxfId="24" priority="73">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN44">
-    <cfRule type="expression" dxfId="2" priority="48">
+  <conditionalFormatting sqref="K8:BN26 K34:BN47">
+    <cfRule type="expression" dxfId="23" priority="76">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="22" priority="77">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN44">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="K6:BN26 K34:BN47">
+    <cfRule type="expression" dxfId="21" priority="36">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34362A0D-F701-4474-ADAF-21BE291869DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:BN27">
+    <cfRule type="expression" dxfId="20" priority="27">
+      <formula>AND($E27&lt;=K$6,ROUNDDOWN(($F27-$E27+1)*$H27,0)+$E27-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="28">
+      <formula>AND(NOT(ISBLANK($E27)),$E27&lt;=K$6,$F27&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:BN27">
+    <cfRule type="expression" dxfId="18" priority="26">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66005769-C478-4CDF-B831-1FCD8509CBDB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79DE39A2-8D7C-4D03-88BB-8ED156CAC480}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:BN29">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>AND($E29&lt;=K$6,ROUNDDOWN(($F29-$E29+1)*$H29,0)+$E29-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>AND(NOT(ISBLANK($E29)),$E29&lt;=K$6,$F29&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:BN29">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4A08678-FBD4-4E40-B2EF-B2AA59E1FBC4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>AND($E30&lt;=K$6,ROUNDDOWN(($F30-$E30+1)*$H30,0)+$E30-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>AND(NOT(ISBLANK($E30)),$E30&lt;=K$6,$F30&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2D32C774-CFC0-45DF-8F53-58A7A152FF0F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{89B1A9F7-C28C-4AD8-894A-4785485FC4AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{26D74C39-8E84-4882-ADF2-F3F3AEB813A7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7736,8 +8383,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A37:B38 B32 B33:B35 B27:B29 A40:B40 B39 E18 E25 E31 E38:H40 G18:H18 G25:H25 G31:H35 G41 G42:G43 G44 H26:H29 F37:H37" unlockedFormula="1"/>
-    <ignoredError sqref="A31 A25 A18" formula="1"/>
+    <ignoredError sqref="H9 A40:B41 B35 B36:B38 A43:B43 B42 E18 E25 E34 E41:H43 G18:H18 G25:H25 G34:H38 G44 G45:G46 G47 F40:H40" unlockedFormula="1"/>
+    <ignoredError sqref="A34 A25 A18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -7751,13 +8398,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>106680</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -7785,7 +8432,112 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H44</xm:sqref>
+          <xm:sqref>H8:H26 H34:H47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{34362A0D-F701-4474-ADAF-21BE291869DE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66005769-C478-4CDF-B831-1FCD8509CBDB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79DE39A2-8D7C-4D03-88BB-8ED156CAC480}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4A08678-FBD4-4E40-B2EF-B2AA59E1FBC4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2D32C774-CFC0-45DF-8F53-58A7A152FF0F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{89B1A9F7-C28C-4AD8-894A-4785485FC4AD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{26D74C39-8E84-4882-ADF2-F3F3AEB813A7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7804,175 +8556,175 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" style="16" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="5.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" style="16" customWidth="1"/>
+    <col min="4" max="7" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:2" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="24" t="s">
         <v>25</v>
       </c>
@@ -7998,74 +8750,74 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="5.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="136" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="131" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B5" s="137" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="136" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11" s="135" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="175" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="175"/>
     </row>
-    <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" s="132" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="140"/>
       <c r="B15" s="138" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="132" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="140"/>
       <c r="B16" s="139" t="s">
         <v>82</v>
@@ -8074,25 +8826,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="141"/>
       <c r="B17" s="139" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="141"/>
       <c r="B18" s="139" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="41" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="144"/>
       <c r="B19" s="139" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="132" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="140"/>
       <c r="B20" s="138" t="s">
         <v>83</v>
@@ -8101,153 +8853,153 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="141"/>
       <c r="B21" s="139" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="142"/>
       <c r="B22" s="143" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="142"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="175" t="s">
         <v>88</v>
       </c>
       <c r="B24" s="175"/>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="142"/>
       <c r="B25" s="139" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="142"/>
       <c r="B26" s="139"/>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="142"/>
       <c r="B27" s="160" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="142"/>
       <c r="B28" s="139" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="142"/>
       <c r="B29" s="139" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="142"/>
       <c r="B30" s="139"/>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="142"/>
       <c r="B31" s="160" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="142"/>
       <c r="B32" s="139" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="142"/>
       <c r="B33" s="139" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="142"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="142"/>
       <c r="B35" s="139" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="142"/>
       <c r="B36" s="145" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="142"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="175" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="175"/>
     </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B39" s="139" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="139" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:2" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B43" s="139" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B45" s="139" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B47" s="139" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="175" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="175"/>
     </row>
-    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B50" s="139" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="146" t="s">
         <v>13</v>
       </c>
@@ -8255,7 +9007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="146" t="s">
         <v>15</v>
       </c>
@@ -8263,7 +9015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="146" t="s">
         <v>17</v>
       </c>
@@ -8271,19 +9023,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A55" s="135"/>
       <c r="B55" s="139" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A56" s="135"/>
       <c r="B56" s="139" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="146" t="s">
         <v>19</v>
       </c>
@@ -8291,19 +9043,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="135"/>
       <c r="B58" s="139" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="135"/>
       <c r="B59" s="139" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="146" t="s">
         <v>21</v>
       </c>
@@ -8311,13 +9063,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A61" s="135"/>
       <c r="B61" s="139" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="146" t="s">
         <v>111</v>
       </c>
@@ -8325,36 +9077,36 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="147"/>
       <c r="B63" s="139" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="175" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="175"/>
     </row>
-    <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B66" s="139" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="175" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="175"/>
     </row>
-    <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="154" t="s">
         <v>7</v>
       </c>
@@ -8362,17 +9114,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="148"/>
       <c r="B70" s="153" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="148"/>
       <c r="B71" s="149"/>
     </row>
-    <row r="72" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="154" t="s">
         <v>7</v>
       </c>
@@ -8380,17 +9132,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A73" s="148"/>
       <c r="B73" s="153" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="148"/>
       <c r="B74" s="149"/>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="154" t="s">
         <v>7</v>
       </c>
@@ -8398,17 +9150,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A76" s="148"/>
       <c r="B76" s="137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="147"/>
       <c r="B77" s="147"/>
     </row>
-    <row r="78" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="154" t="s">
         <v>7</v>
       </c>
@@ -8416,17 +9168,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="148"/>
       <c r="B79" s="137" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="147"/>
       <c r="B80" s="147"/>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="154" t="s">
         <v>7</v>
       </c>
@@ -8434,29 +9186,29 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="148"/>
       <c r="B82" s="152" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="148"/>
       <c r="B83" s="152" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="148"/>
       <c r="B84" s="152" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="147"/>
       <c r="B85" s="151"/>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="154" t="s">
         <v>7</v>
       </c>
@@ -8464,29 +9216,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A87" s="148"/>
       <c r="B87" s="137" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="148"/>
       <c r="B88" s="150" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A89" s="148"/>
       <c r="B89" s="156" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="147"/>
       <c r="B90" s="147"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="154" t="s">
         <v>7</v>
       </c>
@@ -8494,13 +9246,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="135"/>
       <c r="B92" s="152" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>56</v>
       </c>
@@ -8536,14 +9288,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="5.5546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="82.109375" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
@@ -8551,163 +9303,163 @@
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="45"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>

--- a/GANTT chart.xlsx
+++ b/GANTT chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\School Stuff\2nd Year\CS 2043\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37FB92E-EF89-4814-AFA2-2F5A0E42AF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC5F22D-9DC2-491D-96C0-CD1E9D9C6305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="160">
   <si>
     <t>WBS</t>
   </si>
@@ -461,9 +461,6 @@
     <t>[Project Name] Project Schedule</t>
   </si>
   <si>
-    <t>TEMPLATE ROWS</t>
-  </si>
-  <si>
     <t>Input Cell</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
   </si>
   <si>
     <t>Creating Task Dependencies</t>
-  </si>
-  <si>
-    <t>[Task]</t>
   </si>
   <si>
     <t>[Name]</t>
@@ -583,9 +577,6 @@
   </si>
   <si>
     <t>The expanded set of template rows provides more options for defining the Start date, End date,</t>
-  </si>
-  <si>
-    <t>See the Help worksheet to learn how to use these rows. You can hide these rows before printing.</t>
   </si>
   <si>
     <t>and Duration of tasks. Define a task based on …</t>
@@ -712,15 +703,6 @@
     <t>Please read the license agreement in the TermsOfUse worksheet to learn how you may or may not use and share this spreadsheet.</t>
   </si>
   <si>
-    <t xml:space="preserve"> . [ Level 2 Task ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . . [ Level 3 Task ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . . . [ Level 4 Task ]</t>
-  </si>
-  <si>
     <t>TASK</t>
   </si>
   <si>
@@ -752,9 +734,6 @@
   </si>
   <si>
     <t xml:space="preserve">Project Lead </t>
-  </si>
-  <si>
-    <t>[ Level 1 Task or Phase ]</t>
   </si>
   <si>
     <r>
@@ -1542,9 +1521,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Stakeholder Viewpoints</t>
   </si>
   <si>
@@ -1612,6 +1588,9 @@
   </si>
   <si>
     <t>Interface</t>
+  </si>
+  <si>
+    <t>Design Doc</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1603,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1928,34 +1907,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2000,14 +1951,6 @@
       <name val="Arial"/>
       <family val="1"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -2086,7 +2029,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2197,18 +2140,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2226,7 +2157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2349,15 +2280,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEFEFEF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2560,7 +2482,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2579,16 +2501,16 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2609,15 +2531,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2625,13 +2538,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2642,8 +2555,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2660,25 +2573,25 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="42" fillId="22" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="42" fillId="22" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="42" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2687,171 +2600,102 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="47" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="47" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="47" fillId="26" borderId="12" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="47" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="42" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="22" borderId="15" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="42" fillId="22" borderId="15" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="42" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="16" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="24" borderId="16" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="49" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="49" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="47" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="47" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="42" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="42" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2859,107 +2703,97 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2969,39 +2803,39 @@
     <xf numFmtId="1" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3051,7 +2885,33 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="28">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4014,11 +3874,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN48"/>
+  <dimension ref="A1:BN34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4037,53 +3897,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="I1" s="130"/>
-      <c r="K1" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="I1" s="101"/>
+      <c r="K1" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>139</v>
+      <c r="A2" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4109,4028 +3969,2954 @@
       <c r="AA3" s="29"/>
     </row>
     <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="171">
+      <c r="A4" s="81"/>
+      <c r="B4" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="144">
         <v>44151</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="127">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="100">
         <v>1</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="168" t="str">
+      <c r="I4" s="83"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="136" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="168" t="str">
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="136" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="168" t="str">
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="136" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="168" t="str">
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="136" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="169"/>
-      <c r="AL4" s="170"/>
-      <c r="AM4" s="168" t="str">
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="138"/>
+      <c r="AM4" s="136" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="169"/>
-      <c r="AO4" s="169"/>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="170"/>
-      <c r="AT4" s="168" t="str">
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="138"/>
+      <c r="AT4" s="136" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="169"/>
-      <c r="AV4" s="169"/>
-      <c r="AW4" s="169"/>
-      <c r="AX4" s="169"/>
-      <c r="AY4" s="169"/>
-      <c r="AZ4" s="170"/>
-      <c r="BA4" s="168" t="str">
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="137"/>
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="138"/>
+      <c r="BA4" s="136" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="169"/>
-      <c r="BC4" s="169"/>
-      <c r="BD4" s="169"/>
-      <c r="BE4" s="169"/>
-      <c r="BF4" s="169"/>
-      <c r="BG4" s="170"/>
-      <c r="BH4" s="168" t="str">
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="138"/>
+      <c r="BH4" s="136" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="169"/>
-      <c r="BJ4" s="169"/>
-      <c r="BK4" s="169"/>
-      <c r="BL4" s="169"/>
-      <c r="BM4" s="169"/>
-      <c r="BN4" s="170"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="137"/>
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="138"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="172">
+      <c r="A5" s="81"/>
+      <c r="B5" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="139">
         <f>K6</f>
         <v>44151</v>
       </c>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="172">
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="139">
         <f>R6</f>
         <v>44158</v>
       </c>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="172">
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="139">
         <f>Y6</f>
         <v>44165</v>
       </c>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="172">
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="139">
         <f>AF6</f>
         <v>44172</v>
       </c>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="173"/>
-      <c r="AJ5" s="173"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="174"/>
-      <c r="AM5" s="172">
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="139">
         <f>AM6</f>
         <v>44179</v>
       </c>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="174"/>
-      <c r="AT5" s="172">
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="139">
         <f>AT6</f>
         <v>44186</v>
       </c>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="173"/>
-      <c r="AY5" s="173"/>
-      <c r="AZ5" s="174"/>
-      <c r="BA5" s="172">
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
+      <c r="BA5" s="139">
         <f>BA6</f>
         <v>44193</v>
       </c>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="173"/>
-      <c r="BE5" s="173"/>
-      <c r="BF5" s="173"/>
-      <c r="BG5" s="174"/>
-      <c r="BH5" s="172">
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="140"/>
+      <c r="BG5" s="141"/>
+      <c r="BH5" s="139">
         <f>BH6</f>
         <v>44200</v>
       </c>
-      <c r="BI5" s="173"/>
-      <c r="BJ5" s="173"/>
-      <c r="BK5" s="173"/>
-      <c r="BL5" s="173"/>
-      <c r="BM5" s="173"/>
-      <c r="BN5" s="174"/>
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="140"/>
+      <c r="BK5" s="140"/>
+      <c r="BL5" s="140"/>
+      <c r="BM5" s="140"/>
+      <c r="BN5" s="141"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="91">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="70">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
         <v>44151</v>
       </c>
-      <c r="L6" s="82">
+      <c r="L6" s="61">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
         <v>44152</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="61">
         <f t="shared" si="0"/>
         <v>44153</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="61">
         <f t="shared" si="0"/>
         <v>44154</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="61">
         <f t="shared" si="0"/>
         <v>44155</v>
       </c>
-      <c r="P6" s="82">
+      <c r="P6" s="61">
         <f t="shared" si="0"/>
         <v>44156</v>
       </c>
-      <c r="Q6" s="92">
+      <c r="Q6" s="71">
         <f t="shared" si="0"/>
         <v>44157</v>
       </c>
-      <c r="R6" s="91">
+      <c r="R6" s="70">
         <f t="shared" si="0"/>
         <v>44158</v>
       </c>
-      <c r="S6" s="82">
+      <c r="S6" s="61">
         <f t="shared" si="0"/>
         <v>44159</v>
       </c>
-      <c r="T6" s="82">
+      <c r="T6" s="61">
         <f t="shared" si="0"/>
         <v>44160</v>
       </c>
-      <c r="U6" s="82">
+      <c r="U6" s="61">
         <f t="shared" si="0"/>
         <v>44161</v>
       </c>
-      <c r="V6" s="82">
+      <c r="V6" s="61">
         <f t="shared" si="0"/>
         <v>44162</v>
       </c>
-      <c r="W6" s="82">
+      <c r="W6" s="61">
         <f t="shared" si="0"/>
         <v>44163</v>
       </c>
-      <c r="X6" s="92">
+      <c r="X6" s="71">
         <f t="shared" si="0"/>
         <v>44164</v>
       </c>
-      <c r="Y6" s="91">
+      <c r="Y6" s="70">
         <f t="shared" si="0"/>
         <v>44165</v>
       </c>
-      <c r="Z6" s="82">
+      <c r="Z6" s="61">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
-      <c r="AA6" s="82">
+      <c r="AA6" s="61">
         <f t="shared" si="0"/>
         <v>44167</v>
       </c>
-      <c r="AB6" s="82">
+      <c r="AB6" s="61">
         <f t="shared" si="0"/>
         <v>44168</v>
       </c>
-      <c r="AC6" s="82">
+      <c r="AC6" s="61">
         <f t="shared" si="0"/>
         <v>44169</v>
       </c>
-      <c r="AD6" s="82">
+      <c r="AD6" s="61">
         <f t="shared" si="0"/>
         <v>44170</v>
       </c>
-      <c r="AE6" s="92">
+      <c r="AE6" s="71">
         <f t="shared" si="0"/>
         <v>44171</v>
       </c>
-      <c r="AF6" s="91">
+      <c r="AF6" s="70">
         <f t="shared" si="0"/>
         <v>44172</v>
       </c>
-      <c r="AG6" s="82">
+      <c r="AG6" s="61">
         <f t="shared" si="0"/>
         <v>44173</v>
       </c>
-      <c r="AH6" s="82">
+      <c r="AH6" s="61">
         <f t="shared" si="0"/>
         <v>44174</v>
       </c>
-      <c r="AI6" s="82">
+      <c r="AI6" s="61">
         <f t="shared" si="0"/>
         <v>44175</v>
       </c>
-      <c r="AJ6" s="82">
+      <c r="AJ6" s="61">
         <f t="shared" si="0"/>
         <v>44176</v>
       </c>
-      <c r="AK6" s="82">
+      <c r="AK6" s="61">
         <f t="shared" si="0"/>
         <v>44177</v>
       </c>
-      <c r="AL6" s="92">
+      <c r="AL6" s="71">
         <f t="shared" si="0"/>
         <v>44178</v>
       </c>
-      <c r="AM6" s="91">
+      <c r="AM6" s="70">
         <f t="shared" si="0"/>
         <v>44179</v>
       </c>
-      <c r="AN6" s="82">
+      <c r="AN6" s="61">
         <f t="shared" si="0"/>
         <v>44180</v>
       </c>
-      <c r="AO6" s="82">
+      <c r="AO6" s="61">
         <f t="shared" si="0"/>
         <v>44181</v>
       </c>
-      <c r="AP6" s="82">
+      <c r="AP6" s="61">
         <f t="shared" si="0"/>
         <v>44182</v>
       </c>
-      <c r="AQ6" s="82">
+      <c r="AQ6" s="61">
         <f t="shared" si="0"/>
         <v>44183</v>
       </c>
-      <c r="AR6" s="82">
+      <c r="AR6" s="61">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
         <v>44184</v>
       </c>
-      <c r="AS6" s="92">
+      <c r="AS6" s="71">
         <f t="shared" si="1"/>
         <v>44185</v>
       </c>
-      <c r="AT6" s="91">
+      <c r="AT6" s="70">
         <f t="shared" si="1"/>
         <v>44186</v>
       </c>
-      <c r="AU6" s="82">
+      <c r="AU6" s="61">
         <f t="shared" si="1"/>
         <v>44187</v>
       </c>
-      <c r="AV6" s="82">
+      <c r="AV6" s="61">
         <f t="shared" si="1"/>
         <v>44188</v>
       </c>
-      <c r="AW6" s="82">
+      <c r="AW6" s="61">
         <f t="shared" si="1"/>
         <v>44189</v>
       </c>
-      <c r="AX6" s="82">
+      <c r="AX6" s="61">
         <f t="shared" si="1"/>
         <v>44190</v>
       </c>
-      <c r="AY6" s="82">
+      <c r="AY6" s="61">
         <f t="shared" si="1"/>
         <v>44191</v>
       </c>
-      <c r="AZ6" s="92">
+      <c r="AZ6" s="71">
         <f t="shared" si="1"/>
         <v>44192</v>
       </c>
-      <c r="BA6" s="91">
+      <c r="BA6" s="70">
         <f t="shared" si="1"/>
         <v>44193</v>
       </c>
-      <c r="BB6" s="82">
+      <c r="BB6" s="61">
         <f t="shared" si="1"/>
         <v>44194</v>
       </c>
-      <c r="BC6" s="82">
+      <c r="BC6" s="61">
         <f t="shared" si="1"/>
         <v>44195</v>
       </c>
-      <c r="BD6" s="82">
+      <c r="BD6" s="61">
         <f t="shared" si="1"/>
         <v>44196</v>
       </c>
-      <c r="BE6" s="82">
+      <c r="BE6" s="61">
         <f t="shared" si="1"/>
         <v>44197</v>
       </c>
-      <c r="BF6" s="82">
+      <c r="BF6" s="61">
         <f t="shared" si="1"/>
         <v>44198</v>
       </c>
-      <c r="BG6" s="92">
+      <c r="BG6" s="71">
         <f t="shared" si="1"/>
         <v>44199</v>
       </c>
-      <c r="BH6" s="91">
+      <c r="BH6" s="70">
         <f t="shared" si="1"/>
         <v>44200</v>
       </c>
-      <c r="BI6" s="82">
+      <c r="BI6" s="61">
         <f t="shared" si="1"/>
         <v>44201</v>
       </c>
-      <c r="BJ6" s="82">
+      <c r="BJ6" s="61">
         <f t="shared" si="1"/>
         <v>44202</v>
       </c>
-      <c r="BK6" s="82">
+      <c r="BK6" s="61">
         <f t="shared" si="1"/>
         <v>44203</v>
       </c>
-      <c r="BL6" s="82">
+      <c r="BL6" s="61">
         <f t="shared" si="1"/>
         <v>44204</v>
       </c>
-      <c r="BM6" s="82">
+      <c r="BM6" s="61">
         <f t="shared" si="1"/>
         <v>44205</v>
       </c>
-      <c r="BN6" s="92">
+      <c r="BN6" s="71">
         <f t="shared" si="1"/>
         <v>44206</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="122" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+    <row r="7" spans="1:66" s="95" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="119" t="str">
+      <c r="J7" s="89"/>
+      <c r="K7" s="92" t="str">
         <f t="shared" ref="K7:AP7" si="2">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L7" s="120" t="str">
+      <c r="L7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="M7" s="120" t="str">
+      <c r="M7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="N7" s="120" t="str">
+      <c r="N7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="O7" s="120" t="str">
+      <c r="O7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="P7" s="120" t="str">
+      <c r="P7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Q7" s="121" t="str">
+      <c r="Q7" s="94" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="R7" s="119" t="str">
+      <c r="R7" s="92" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="S7" s="120" t="str">
+      <c r="S7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="T7" s="120" t="str">
+      <c r="T7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="U7" s="120" t="str">
+      <c r="U7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="V7" s="120" t="str">
+      <c r="V7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="W7" s="120" t="str">
+      <c r="W7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="X7" s="121" t="str">
+      <c r="X7" s="94" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="119" t="str">
+      <c r="Y7" s="92" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Z7" s="120" t="str">
+      <c r="Z7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AA7" s="120" t="str">
+      <c r="AA7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AB7" s="120" t="str">
+      <c r="AB7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AC7" s="120" t="str">
+      <c r="AC7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AD7" s="120" t="str">
+      <c r="AD7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AE7" s="121" t="str">
+      <c r="AE7" s="94" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AF7" s="119" t="str">
+      <c r="AF7" s="92" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AG7" s="120" t="str">
+      <c r="AG7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AH7" s="120" t="str">
+      <c r="AH7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AI7" s="120" t="str">
+      <c r="AI7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AJ7" s="120" t="str">
+      <c r="AJ7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AK7" s="120" t="str">
+      <c r="AK7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AL7" s="121" t="str">
+      <c r="AL7" s="94" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="119" t="str">
+      <c r="AM7" s="92" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AN7" s="120" t="str">
+      <c r="AN7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AO7" s="120" t="str">
+      <c r="AO7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AP7" s="120" t="str">
+      <c r="AP7" s="93" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AQ7" s="120" t="str">
+      <c r="AQ7" s="93" t="str">
         <f t="shared" ref="AQ7:BN7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AR7" s="120" t="str">
+      <c r="AR7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AS7" s="121" t="str">
+      <c r="AS7" s="94" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="119" t="str">
+      <c r="AT7" s="92" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AU7" s="120" t="str">
+      <c r="AU7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AV7" s="120" t="str">
+      <c r="AV7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AW7" s="120" t="str">
+      <c r="AW7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AX7" s="120" t="str">
+      <c r="AX7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AY7" s="120" t="str">
+      <c r="AY7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AZ7" s="121" t="str">
+      <c r="AZ7" s="94" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="119" t="str">
+      <c r="BA7" s="92" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="BB7" s="120" t="str">
+      <c r="BB7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BC7" s="120" t="str">
+      <c r="BC7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="BD7" s="120" t="str">
+      <c r="BD7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BE7" s="120" t="str">
+      <c r="BE7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="BF7" s="120" t="str">
+      <c r="BF7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BG7" s="121" t="str">
+      <c r="BG7" s="94" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="119" t="str">
+      <c r="BH7" s="92" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="BI7" s="120" t="str">
+      <c r="BI7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BJ7" s="120" t="str">
+      <c r="BJ7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="BK7" s="120" t="str">
+      <c r="BK7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BL7" s="120" t="str">
+      <c r="BL7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="BM7" s="120" t="str">
+      <c r="BM7" s="93" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BN7" s="121" t="str">
+      <c r="BN7" s="94" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="str">
+    <row r="8" spans="1:66" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B8" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="113" t="str">
+      <c r="B8" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="86" t="str">
         <f t="shared" ref="F8:F24" si="4">IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90" t="str">
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69" t="str">
         <f t="shared" ref="I8:I23" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="105"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="105"/>
-      <c r="BJ8" s="105"/>
-      <c r="BK8" s="105"/>
-      <c r="BL8" s="105"/>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
-    </row>
-    <row r="9" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="str">
+      <c r="J8" s="72"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="78"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="78"/>
+      <c r="AH8" s="78"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="78"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="78"/>
+      <c r="BA8" s="78"/>
+      <c r="BB8" s="78"/>
+      <c r="BC8" s="78"/>
+      <c r="BD8" s="78"/>
+      <c r="BE8" s="78"/>
+      <c r="BF8" s="78"/>
+      <c r="BG8" s="78"/>
+      <c r="BH8" s="78"/>
+      <c r="BI8" s="78"/>
+      <c r="BJ8" s="78"/>
+      <c r="BK8" s="78"/>
+      <c r="BL8" s="78"/>
+      <c r="BM8" s="78"/>
+      <c r="BN8" s="78"/>
+    </row>
+    <row r="9" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="124" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="99">
+      <c r="B9" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="75">
         <v>44146</v>
       </c>
-      <c r="F9" s="100">
+      <c r="F9" s="76">
         <f t="shared" si="4"/>
         <v>44150</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="58">
         <v>5</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="59">
         <v>1</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="60">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="106"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="106"/>
-      <c r="AJ9" s="106"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106"/>
-      <c r="AT9" s="106"/>
-      <c r="AU9" s="106"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="106"/>
-      <c r="AY9" s="106"/>
-      <c r="AZ9" s="106"/>
-      <c r="BA9" s="106"/>
-      <c r="BB9" s="106"/>
-      <c r="BC9" s="106"/>
-      <c r="BD9" s="106"/>
-      <c r="BE9" s="106"/>
-      <c r="BF9" s="106"/>
-      <c r="BG9" s="106"/>
-      <c r="BH9" s="106"/>
-      <c r="BI9" s="106"/>
-      <c r="BJ9" s="106"/>
-      <c r="BK9" s="106"/>
-      <c r="BL9" s="106"/>
-      <c r="BM9" s="106"/>
-      <c r="BN9" s="106"/>
-    </row>
-    <row r="10" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="str">
+      <c r="J9" s="73"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="79"/>
+      <c r="BB9" s="79"/>
+      <c r="BC9" s="79"/>
+      <c r="BD9" s="79"/>
+      <c r="BE9" s="79"/>
+      <c r="BF9" s="79"/>
+      <c r="BG9" s="79"/>
+      <c r="BH9" s="79"/>
+      <c r="BI9" s="79"/>
+      <c r="BJ9" s="79"/>
+      <c r="BK9" s="79"/>
+      <c r="BL9" s="79"/>
+      <c r="BM9" s="79"/>
+      <c r="BN9" s="79"/>
+    </row>
+    <row r="10" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.2</v>
       </c>
-      <c r="B10" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="99">
+      <c r="B10" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="98"/>
+      <c r="E10" s="75">
         <v>44150</v>
       </c>
-      <c r="F10" s="100">
+      <c r="F10" s="76">
         <f t="shared" si="4"/>
         <v>44152</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="58">
         <v>3</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="59">
         <v>1</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="60">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="106"/>
-      <c r="AJ10" s="106"/>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="106"/>
-      <c r="AM10" s="106"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="106"/>
-      <c r="AS10" s="106"/>
-      <c r="AT10" s="106"/>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="106"/>
-      <c r="AX10" s="106"/>
-      <c r="AY10" s="106"/>
-      <c r="AZ10" s="106"/>
-      <c r="BA10" s="106"/>
-      <c r="BB10" s="106"/>
-      <c r="BC10" s="106"/>
-      <c r="BD10" s="106"/>
-      <c r="BE10" s="106"/>
-      <c r="BF10" s="106"/>
-      <c r="BG10" s="106"/>
-      <c r="BH10" s="106"/>
-      <c r="BI10" s="106"/>
-      <c r="BJ10" s="106"/>
-      <c r="BK10" s="106"/>
-      <c r="BL10" s="106"/>
-      <c r="BM10" s="106"/>
-      <c r="BN10" s="106"/>
-    </row>
-    <row r="11" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="str">
+      <c r="J10" s="73"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="79"/>
+      <c r="BJ10" s="79"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="79"/>
+      <c r="BM10" s="79"/>
+      <c r="BN10" s="79"/>
+    </row>
+    <row r="11" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.3</v>
       </c>
-      <c r="B11" s="124" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="99">
+      <c r="B11" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="98"/>
+      <c r="E11" s="75">
         <v>44152</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="76">
         <f t="shared" si="4"/>
         <v>44152</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="58">
         <v>1</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="59">
         <v>1</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="60">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="106"/>
-      <c r="BA11" s="106"/>
-      <c r="BB11" s="106"/>
-      <c r="BC11" s="106"/>
-      <c r="BD11" s="106"/>
-      <c r="BE11" s="106"/>
-      <c r="BF11" s="106"/>
-      <c r="BG11" s="106"/>
-      <c r="BH11" s="106"/>
-      <c r="BI11" s="106"/>
-      <c r="BJ11" s="106"/>
-      <c r="BK11" s="106"/>
-      <c r="BL11" s="106"/>
-      <c r="BM11" s="106"/>
-      <c r="BN11" s="106"/>
-    </row>
-    <row r="12" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="str">
+      <c r="J11" s="73"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="79"/>
+      <c r="BB11" s="79"/>
+      <c r="BC11" s="79"/>
+      <c r="BD11" s="79"/>
+      <c r="BE11" s="79"/>
+      <c r="BF11" s="79"/>
+      <c r="BG11" s="79"/>
+      <c r="BH11" s="79"/>
+      <c r="BI11" s="79"/>
+      <c r="BJ11" s="79"/>
+      <c r="BK11" s="79"/>
+      <c r="BL11" s="79"/>
+      <c r="BM11" s="79"/>
+      <c r="BN11" s="79"/>
+    </row>
+    <row r="12" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
       </c>
-      <c r="B12" s="126" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="99">
+      <c r="B12" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="98"/>
+      <c r="E12" s="75">
         <v>44152</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="76">
         <f t="shared" si="4"/>
         <v>44152</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="58">
         <v>1</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="59">
         <v>1</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="60">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="106"/>
-      <c r="AK12" s="106"/>
-      <c r="AL12" s="106"/>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="106"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="106"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="106"/>
-      <c r="AY12" s="106"/>
-      <c r="AZ12" s="106"/>
-      <c r="BA12" s="106"/>
-      <c r="BB12" s="106"/>
-      <c r="BC12" s="106"/>
-      <c r="BD12" s="106"/>
-      <c r="BE12" s="106"/>
-      <c r="BF12" s="106"/>
-      <c r="BG12" s="106"/>
-      <c r="BH12" s="106"/>
-      <c r="BI12" s="106"/>
-      <c r="BJ12" s="106"/>
-      <c r="BK12" s="106"/>
-      <c r="BL12" s="106"/>
-      <c r="BM12" s="106"/>
-      <c r="BN12" s="106"/>
-    </row>
-    <row r="13" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="str">
+      <c r="J12" s="73"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
+      <c r="AS12" s="79"/>
+      <c r="AT12" s="79"/>
+      <c r="AU12" s="79"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AX12" s="79"/>
+      <c r="AY12" s="79"/>
+      <c r="AZ12" s="79"/>
+      <c r="BA12" s="79"/>
+      <c r="BB12" s="79"/>
+      <c r="BC12" s="79"/>
+      <c r="BD12" s="79"/>
+      <c r="BE12" s="79"/>
+      <c r="BF12" s="79"/>
+      <c r="BG12" s="79"/>
+      <c r="BH12" s="79"/>
+      <c r="BI12" s="79"/>
+      <c r="BJ12" s="79"/>
+      <c r="BK12" s="79"/>
+      <c r="BL12" s="79"/>
+      <c r="BM12" s="79"/>
+      <c r="BN12" s="79"/>
+    </row>
+    <row r="13" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
       </c>
-      <c r="B13" s="126" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="99">
+      <c r="B13" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="75">
         <v>44153</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="76">
         <f t="shared" si="4"/>
         <v>44153</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="58">
         <v>1</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="59">
         <v>1</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="60">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="106"/>
-      <c r="AY13" s="106"/>
-      <c r="AZ13" s="106"/>
-      <c r="BA13" s="106"/>
-      <c r="BB13" s="106"/>
-      <c r="BC13" s="106"/>
-      <c r="BD13" s="106"/>
-      <c r="BE13" s="106"/>
-      <c r="BF13" s="106"/>
-      <c r="BG13" s="106"/>
-      <c r="BH13" s="106"/>
-      <c r="BI13" s="106"/>
-      <c r="BJ13" s="106"/>
-      <c r="BK13" s="106"/>
-      <c r="BL13" s="106"/>
-      <c r="BM13" s="106"/>
-      <c r="BN13" s="106"/>
-    </row>
-    <row r="14" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="str">
+      <c r="J13" s="73"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="79"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="79"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+      <c r="AY13" s="79"/>
+      <c r="AZ13" s="79"/>
+      <c r="BA13" s="79"/>
+      <c r="BB13" s="79"/>
+      <c r="BC13" s="79"/>
+      <c r="BD13" s="79"/>
+      <c r="BE13" s="79"/>
+      <c r="BF13" s="79"/>
+      <c r="BG13" s="79"/>
+      <c r="BH13" s="79"/>
+      <c r="BI13" s="79"/>
+      <c r="BJ13" s="79"/>
+      <c r="BK13" s="79"/>
+      <c r="BL13" s="79"/>
+      <c r="BM13" s="79"/>
+      <c r="BN13" s="79"/>
+    </row>
+    <row r="14" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.3</v>
       </c>
-      <c r="B14" s="126" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="99">
+      <c r="B14" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="98"/>
+      <c r="E14" s="75">
         <v>44153</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F14" s="76">
         <f t="shared" si="4"/>
         <v>44153</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="58">
         <v>1</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="59">
         <v>1</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="60">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="106"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="106"/>
-      <c r="AN14" s="106"/>
-      <c r="AO14" s="106"/>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="106"/>
-      <c r="AS14" s="106"/>
-      <c r="AT14" s="106"/>
-      <c r="AU14" s="106"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="106"/>
-      <c r="AX14" s="106"/>
-      <c r="AY14" s="106"/>
-      <c r="AZ14" s="106"/>
-      <c r="BA14" s="106"/>
-      <c r="BB14" s="106"/>
-      <c r="BC14" s="106"/>
-      <c r="BD14" s="106"/>
-      <c r="BE14" s="106"/>
-      <c r="BF14" s="106"/>
-      <c r="BG14" s="106"/>
-      <c r="BH14" s="106"/>
-      <c r="BI14" s="106"/>
-      <c r="BJ14" s="106"/>
-      <c r="BK14" s="106"/>
-      <c r="BL14" s="106"/>
-      <c r="BM14" s="106"/>
-      <c r="BN14" s="106"/>
-    </row>
-    <row r="15" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="str">
+      <c r="J14" s="73"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="79"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="79"/>
+      <c r="AT14" s="79"/>
+      <c r="AU14" s="79"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+      <c r="AY14" s="79"/>
+      <c r="AZ14" s="79"/>
+      <c r="BA14" s="79"/>
+      <c r="BB14" s="79"/>
+      <c r="BC14" s="79"/>
+      <c r="BD14" s="79"/>
+      <c r="BE14" s="79"/>
+      <c r="BF14" s="79"/>
+      <c r="BG14" s="79"/>
+      <c r="BH14" s="79"/>
+      <c r="BI14" s="79"/>
+      <c r="BJ14" s="79"/>
+      <c r="BK14" s="79"/>
+      <c r="BL14" s="79"/>
+      <c r="BM14" s="79"/>
+      <c r="BN14" s="79"/>
+    </row>
+    <row r="15" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.4</v>
       </c>
-      <c r="B15" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="99">
+      <c r="B15" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="75">
         <v>44154</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="76">
         <f t="shared" si="4"/>
         <v>44156</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="58">
         <v>3</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="59">
         <v>1</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="60">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="106"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="106"/>
-      <c r="AJ15" s="106"/>
-      <c r="AK15" s="106"/>
-      <c r="AL15" s="106"/>
-      <c r="AM15" s="106"/>
-      <c r="AN15" s="106"/>
-      <c r="AO15" s="106"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="106"/>
-      <c r="AR15" s="106"/>
-      <c r="AS15" s="106"/>
-      <c r="AT15" s="106"/>
-      <c r="AU15" s="106"/>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="106"/>
-      <c r="AX15" s="106"/>
-      <c r="AY15" s="106"/>
-      <c r="AZ15" s="106"/>
-      <c r="BA15" s="106"/>
-      <c r="BB15" s="106"/>
-      <c r="BC15" s="106"/>
-      <c r="BD15" s="106"/>
-      <c r="BE15" s="106"/>
-      <c r="BF15" s="106"/>
-      <c r="BG15" s="106"/>
-      <c r="BH15" s="106"/>
-      <c r="BI15" s="106"/>
-      <c r="BJ15" s="106"/>
-      <c r="BK15" s="106"/>
-      <c r="BL15" s="106"/>
-      <c r="BM15" s="106"/>
-      <c r="BN15" s="106"/>
-    </row>
-    <row r="16" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="str">
+      <c r="J15" s="73"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
+      <c r="AS15" s="79"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="79"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="79"/>
+      <c r="AY15" s="79"/>
+      <c r="AZ15" s="79"/>
+      <c r="BA15" s="79"/>
+      <c r="BB15" s="79"/>
+      <c r="BC15" s="79"/>
+      <c r="BD15" s="79"/>
+      <c r="BE15" s="79"/>
+      <c r="BF15" s="79"/>
+      <c r="BG15" s="79"/>
+      <c r="BH15" s="79"/>
+      <c r="BI15" s="79"/>
+      <c r="BJ15" s="79"/>
+      <c r="BK15" s="79"/>
+      <c r="BL15" s="79"/>
+      <c r="BM15" s="79"/>
+      <c r="BN15" s="79"/>
+    </row>
+    <row r="16" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.5</v>
       </c>
-      <c r="B16" s="124" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="99">
+      <c r="B16" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="75">
         <v>44154</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F16" s="76">
         <f t="shared" si="4"/>
         <v>44157</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="58">
         <v>4</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="59">
         <v>1</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="60">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="106"/>
-      <c r="AE16" s="106"/>
-      <c r="AF16" s="106"/>
-      <c r="AG16" s="106"/>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="106"/>
-      <c r="AJ16" s="106"/>
-      <c r="AK16" s="106"/>
-      <c r="AL16" s="106"/>
-      <c r="AM16" s="106"/>
-      <c r="AN16" s="106"/>
-      <c r="AO16" s="106"/>
-      <c r="AP16" s="106"/>
-      <c r="AQ16" s="106"/>
-      <c r="AR16" s="106"/>
-      <c r="AS16" s="106"/>
-      <c r="AT16" s="106"/>
-      <c r="AU16" s="106"/>
-      <c r="AV16" s="106"/>
-      <c r="AW16" s="106"/>
-      <c r="AX16" s="106"/>
-      <c r="AY16" s="106"/>
-      <c r="AZ16" s="106"/>
-      <c r="BA16" s="106"/>
-      <c r="BB16" s="106"/>
-      <c r="BC16" s="106"/>
-      <c r="BD16" s="106"/>
-      <c r="BE16" s="106"/>
-      <c r="BF16" s="106"/>
-      <c r="BG16" s="106"/>
-      <c r="BH16" s="106"/>
-      <c r="BI16" s="106"/>
-      <c r="BJ16" s="106"/>
-      <c r="BK16" s="106"/>
-      <c r="BL16" s="106"/>
-      <c r="BM16" s="106"/>
-      <c r="BN16" s="106"/>
-    </row>
-    <row r="17" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="str">
+      <c r="J16" s="73"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="79"/>
+      <c r="AS16" s="79"/>
+      <c r="AT16" s="79"/>
+      <c r="AU16" s="79"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+      <c r="AY16" s="79"/>
+      <c r="AZ16" s="79"/>
+      <c r="BA16" s="79"/>
+      <c r="BB16" s="79"/>
+      <c r="BC16" s="79"/>
+      <c r="BD16" s="79"/>
+      <c r="BE16" s="79"/>
+      <c r="BF16" s="79"/>
+      <c r="BG16" s="79"/>
+      <c r="BH16" s="79"/>
+      <c r="BI16" s="79"/>
+      <c r="BJ16" s="79"/>
+      <c r="BK16" s="79"/>
+      <c r="BL16" s="79"/>
+      <c r="BM16" s="79"/>
+      <c r="BN16" s="79"/>
+    </row>
+    <row r="17" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.6</v>
       </c>
-      <c r="B17" s="124" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="99">
+      <c r="B17" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="75">
         <v>44156</v>
       </c>
-      <c r="F17" s="100">
+      <c r="F17" s="76">
         <f t="shared" si="4"/>
         <v>44157</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="58">
         <v>2</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="59">
         <v>1</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="106"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="106"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="106"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
-      <c r="AX17" s="106"/>
-      <c r="AY17" s="106"/>
-      <c r="AZ17" s="106"/>
-      <c r="BA17" s="106"/>
-      <c r="BB17" s="106"/>
-      <c r="BC17" s="106"/>
-      <c r="BD17" s="106"/>
-      <c r="BE17" s="106"/>
-      <c r="BF17" s="106"/>
-      <c r="BG17" s="106"/>
-      <c r="BH17" s="106"/>
-      <c r="BI17" s="106"/>
-      <c r="BJ17" s="106"/>
-      <c r="BK17" s="106"/>
-      <c r="BL17" s="106"/>
-      <c r="BM17" s="106"/>
-      <c r="BN17" s="106"/>
-    </row>
-    <row r="18" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="str">
+      <c r="J17" s="73"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="79"/>
+      <c r="AR17" s="79"/>
+      <c r="AS17" s="79"/>
+      <c r="AT17" s="79"/>
+      <c r="AU17" s="79"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="79"/>
+      <c r="AX17" s="79"/>
+      <c r="AY17" s="79"/>
+      <c r="AZ17" s="79"/>
+      <c r="BA17" s="79"/>
+      <c r="BB17" s="79"/>
+      <c r="BC17" s="79"/>
+      <c r="BD17" s="79"/>
+      <c r="BE17" s="79"/>
+      <c r="BF17" s="79"/>
+      <c r="BG17" s="79"/>
+      <c r="BH17" s="79"/>
+      <c r="BI17" s="79"/>
+      <c r="BJ17" s="79"/>
+      <c r="BK17" s="79"/>
+      <c r="BL17" s="79"/>
+      <c r="BM17" s="79"/>
+      <c r="BN17" s="79"/>
+    </row>
+    <row r="18" spans="1:66" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101" t="str">
+      <c r="B18" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58" t="str">
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="107"/>
-      <c r="AL18" s="107"/>
-      <c r="AM18" s="107"/>
-      <c r="AN18" s="107"/>
-      <c r="AO18" s="107"/>
-      <c r="AP18" s="107"/>
-      <c r="AQ18" s="107"/>
-      <c r="AR18" s="107"/>
-      <c r="AS18" s="107"/>
-      <c r="AT18" s="107"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="107"/>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="107"/>
-      <c r="AY18" s="107"/>
-      <c r="AZ18" s="107"/>
-      <c r="BA18" s="107"/>
-      <c r="BB18" s="107"/>
-      <c r="BC18" s="107"/>
-      <c r="BD18" s="107"/>
-      <c r="BE18" s="107"/>
-      <c r="BF18" s="107"/>
-      <c r="BG18" s="107"/>
-      <c r="BH18" s="107"/>
-      <c r="BI18" s="107"/>
-      <c r="BJ18" s="107"/>
-      <c r="BK18" s="107"/>
-      <c r="BL18" s="107"/>
-      <c r="BM18" s="107"/>
-      <c r="BN18" s="107"/>
-    </row>
-    <row r="19" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="str">
+      <c r="J18" s="74"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="80"/>
+      <c r="AP18" s="80"/>
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="80"/>
+      <c r="AS18" s="80"/>
+      <c r="AT18" s="80"/>
+      <c r="AU18" s="80"/>
+      <c r="AV18" s="80"/>
+      <c r="AW18" s="80"/>
+      <c r="AX18" s="80"/>
+      <c r="AY18" s="80"/>
+      <c r="AZ18" s="80"/>
+      <c r="BA18" s="80"/>
+      <c r="BB18" s="80"/>
+      <c r="BC18" s="80"/>
+      <c r="BD18" s="80"/>
+      <c r="BE18" s="80"/>
+      <c r="BF18" s="80"/>
+      <c r="BG18" s="80"/>
+      <c r="BH18" s="80"/>
+      <c r="BI18" s="80"/>
+      <c r="BJ18" s="80"/>
+      <c r="BK18" s="80"/>
+      <c r="BL18" s="80"/>
+      <c r="BM18" s="80"/>
+      <c r="BN18" s="80"/>
+    </row>
+    <row r="19" spans="1:66" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="str">
         <f t="shared" ref="A19:A24" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B19" s="162" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="99">
+      <c r="B19" s="132" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="75">
         <v>44153</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="76">
         <f t="shared" si="4"/>
         <v>44153</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="58">
         <v>1</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="59">
         <v>1</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="60">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="106"/>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="106"/>
-      <c r="AL19" s="106"/>
-      <c r="AM19" s="106"/>
-      <c r="AN19" s="106"/>
-      <c r="AO19" s="106"/>
-      <c r="AP19" s="106"/>
-      <c r="AQ19" s="106"/>
-      <c r="AR19" s="106"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="106"/>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
-      <c r="AX19" s="106"/>
-      <c r="AY19" s="106"/>
-      <c r="AZ19" s="106"/>
-      <c r="BA19" s="106"/>
-      <c r="BB19" s="106"/>
-      <c r="BC19" s="106"/>
-      <c r="BD19" s="106"/>
-      <c r="BE19" s="106"/>
-      <c r="BF19" s="106"/>
-      <c r="BG19" s="106"/>
-      <c r="BH19" s="106"/>
-      <c r="BI19" s="106"/>
-      <c r="BJ19" s="106"/>
-      <c r="BK19" s="106"/>
-      <c r="BL19" s="106"/>
-      <c r="BM19" s="106"/>
-      <c r="BN19" s="106"/>
-    </row>
-    <row r="20" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="str">
+      <c r="J19" s="73"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="79"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="79"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="79"/>
+      <c r="AS19" s="79"/>
+      <c r="AT19" s="79"/>
+      <c r="AU19" s="79"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="79"/>
+      <c r="AY19" s="79"/>
+      <c r="AZ19" s="79"/>
+      <c r="BA19" s="79"/>
+      <c r="BB19" s="79"/>
+      <c r="BC19" s="79"/>
+      <c r="BD19" s="79"/>
+      <c r="BE19" s="79"/>
+      <c r="BF19" s="79"/>
+      <c r="BG19" s="79"/>
+      <c r="BH19" s="79"/>
+      <c r="BI19" s="79"/>
+      <c r="BJ19" s="79"/>
+      <c r="BK19" s="79"/>
+      <c r="BL19" s="79"/>
+      <c r="BM19" s="79"/>
+      <c r="BN19" s="79"/>
+    </row>
+    <row r="20" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="str">
         <f t="shared" si="6"/>
         <v>2.2</v>
       </c>
-      <c r="B20" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="99">
+      <c r="B20" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="75">
         <v>44154</v>
       </c>
-      <c r="F20" s="100">
+      <c r="F20" s="76">
         <f t="shared" si="4"/>
         <v>44154</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="58">
         <v>1</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="59">
         <v>1</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="60">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="106"/>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="106"/>
-      <c r="AN20" s="106"/>
-      <c r="AO20" s="106"/>
-      <c r="AP20" s="106"/>
-      <c r="AQ20" s="106"/>
-      <c r="AR20" s="106"/>
-      <c r="AS20" s="106"/>
-      <c r="AT20" s="106"/>
-      <c r="AU20" s="106"/>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="106"/>
-      <c r="AY20" s="106"/>
-      <c r="AZ20" s="106"/>
-      <c r="BA20" s="106"/>
-      <c r="BB20" s="106"/>
-      <c r="BC20" s="106"/>
-      <c r="BD20" s="106"/>
-      <c r="BE20" s="106"/>
-      <c r="BF20" s="106"/>
-      <c r="BG20" s="106"/>
-      <c r="BH20" s="106"/>
-      <c r="BI20" s="106"/>
-      <c r="BJ20" s="106"/>
-      <c r="BK20" s="106"/>
-      <c r="BL20" s="106"/>
-      <c r="BM20" s="106"/>
-      <c r="BN20" s="106"/>
-    </row>
-    <row r="21" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="str">
+      <c r="J20" s="73"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="79"/>
+      <c r="AM20" s="79"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="79"/>
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="79"/>
+      <c r="AR20" s="79"/>
+      <c r="AS20" s="79"/>
+      <c r="AT20" s="79"/>
+      <c r="AU20" s="79"/>
+      <c r="AV20" s="79"/>
+      <c r="AW20" s="79"/>
+      <c r="AX20" s="79"/>
+      <c r="AY20" s="79"/>
+      <c r="AZ20" s="79"/>
+      <c r="BA20" s="79"/>
+      <c r="BB20" s="79"/>
+      <c r="BC20" s="79"/>
+      <c r="BD20" s="79"/>
+      <c r="BE20" s="79"/>
+      <c r="BF20" s="79"/>
+      <c r="BG20" s="79"/>
+      <c r="BH20" s="79"/>
+      <c r="BI20" s="79"/>
+      <c r="BJ20" s="79"/>
+      <c r="BK20" s="79"/>
+      <c r="BL20" s="79"/>
+      <c r="BM20" s="79"/>
+      <c r="BN20" s="79"/>
+    </row>
+    <row r="21" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="str">
         <f t="shared" si="6"/>
         <v>2.3</v>
       </c>
-      <c r="B21" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="99">
+      <c r="B21" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="75">
         <v>44154</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="76">
         <f t="shared" si="4"/>
         <v>44154</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="58">
         <v>1</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="59">
         <v>1</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="60">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J21" s="94"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="106"/>
-      <c r="AF21" s="106"/>
-      <c r="AG21" s="106"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="106"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="106"/>
-      <c r="AL21" s="106"/>
-      <c r="AM21" s="106"/>
-      <c r="AN21" s="106"/>
-      <c r="AO21" s="106"/>
-      <c r="AP21" s="106"/>
-      <c r="AQ21" s="106"/>
-      <c r="AR21" s="106"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="106"/>
-      <c r="AU21" s="106"/>
-      <c r="AV21" s="106"/>
-      <c r="AW21" s="106"/>
-      <c r="AX21" s="106"/>
-      <c r="AY21" s="106"/>
-      <c r="AZ21" s="106"/>
-      <c r="BA21" s="106"/>
-      <c r="BB21" s="106"/>
-      <c r="BC21" s="106"/>
-      <c r="BD21" s="106"/>
-      <c r="BE21" s="106"/>
-      <c r="BF21" s="106"/>
-      <c r="BG21" s="106"/>
-      <c r="BH21" s="106"/>
-      <c r="BI21" s="106"/>
-      <c r="BJ21" s="106"/>
-      <c r="BK21" s="106"/>
-      <c r="BL21" s="106"/>
-      <c r="BM21" s="106"/>
-      <c r="BN21" s="106"/>
-    </row>
-    <row r="22" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="str">
+      <c r="J21" s="73"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="79"/>
+      <c r="BA21" s="79"/>
+      <c r="BB21" s="79"/>
+      <c r="BC21" s="79"/>
+      <c r="BD21" s="79"/>
+      <c r="BE21" s="79"/>
+      <c r="BF21" s="79"/>
+      <c r="BG21" s="79"/>
+      <c r="BH21" s="79"/>
+      <c r="BI21" s="79"/>
+      <c r="BJ21" s="79"/>
+      <c r="BK21" s="79"/>
+      <c r="BL21" s="79"/>
+      <c r="BM21" s="79"/>
+      <c r="BN21" s="79"/>
+    </row>
+    <row r="22" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="str">
         <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
-      <c r="B22" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="99">
+      <c r="B22" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="75">
         <v>44154</v>
       </c>
-      <c r="F22" s="100">
+      <c r="F22" s="76">
         <f t="shared" si="4"/>
         <v>44155</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="58">
         <v>2</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="59">
         <v>1</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="60">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="106"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="106"/>
-      <c r="AL22" s="106"/>
-      <c r="AM22" s="106"/>
-      <c r="AN22" s="106"/>
-      <c r="AO22" s="106"/>
-      <c r="AP22" s="106"/>
-      <c r="AQ22" s="106"/>
-      <c r="AR22" s="106"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="106"/>
-      <c r="AU22" s="106"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="106"/>
-      <c r="AX22" s="106"/>
-      <c r="AY22" s="106"/>
-      <c r="AZ22" s="106"/>
-      <c r="BA22" s="106"/>
-      <c r="BB22" s="106"/>
-      <c r="BC22" s="106"/>
-      <c r="BD22" s="106"/>
-      <c r="BE22" s="106"/>
-      <c r="BF22" s="106"/>
-      <c r="BG22" s="106"/>
-      <c r="BH22" s="106"/>
-      <c r="BI22" s="106"/>
-      <c r="BJ22" s="106"/>
-      <c r="BK22" s="106"/>
-      <c r="BL22" s="106"/>
-      <c r="BM22" s="106"/>
-      <c r="BN22" s="106"/>
-    </row>
-    <row r="23" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="str">
+      <c r="J22" s="73"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="79"/>
+      <c r="BA22" s="79"/>
+      <c r="BB22" s="79"/>
+      <c r="BC22" s="79"/>
+      <c r="BD22" s="79"/>
+      <c r="BE22" s="79"/>
+      <c r="BF22" s="79"/>
+      <c r="BG22" s="79"/>
+      <c r="BH22" s="79"/>
+      <c r="BI22" s="79"/>
+      <c r="BJ22" s="79"/>
+      <c r="BK22" s="79"/>
+      <c r="BL22" s="79"/>
+      <c r="BM22" s="79"/>
+      <c r="BN22" s="79"/>
+    </row>
+    <row r="23" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="str">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="B23" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="99">
+      <c r="B23" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="75">
         <v>44155</v>
       </c>
-      <c r="F23" s="100">
+      <c r="F23" s="76">
         <f t="shared" si="4"/>
         <v>44156</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="58">
         <v>2</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="59">
         <v>1</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="60">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="106"/>
-      <c r="AL23" s="106"/>
-      <c r="AM23" s="106"/>
-      <c r="AN23" s="106"/>
-      <c r="AO23" s="106"/>
-      <c r="AP23" s="106"/>
-      <c r="AQ23" s="106"/>
-      <c r="AR23" s="106"/>
-      <c r="AS23" s="106"/>
-      <c r="AT23" s="106"/>
-      <c r="AU23" s="106"/>
-      <c r="AV23" s="106"/>
-      <c r="AW23" s="106"/>
-      <c r="AX23" s="106"/>
-      <c r="AY23" s="106"/>
-      <c r="AZ23" s="106"/>
-      <c r="BA23" s="106"/>
-      <c r="BB23" s="106"/>
-      <c r="BC23" s="106"/>
-      <c r="BD23" s="106"/>
-      <c r="BE23" s="106"/>
-      <c r="BF23" s="106"/>
-      <c r="BG23" s="106"/>
-      <c r="BH23" s="106"/>
-      <c r="BI23" s="106"/>
-      <c r="BJ23" s="106"/>
-      <c r="BK23" s="106"/>
-      <c r="BL23" s="106"/>
-      <c r="BM23" s="106"/>
-      <c r="BN23" s="106"/>
-    </row>
-    <row r="24" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="str">
+      <c r="J23" s="73"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="79"/>
+      <c r="AM23" s="79"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="79"/>
+      <c r="BC23" s="79"/>
+      <c r="BD23" s="79"/>
+      <c r="BE23" s="79"/>
+      <c r="BF23" s="79"/>
+      <c r="BG23" s="79"/>
+      <c r="BH23" s="79"/>
+      <c r="BI23" s="79"/>
+      <c r="BJ23" s="79"/>
+      <c r="BK23" s="79"/>
+      <c r="BL23" s="79"/>
+      <c r="BM23" s="79"/>
+      <c r="BN23" s="79"/>
+    </row>
+    <row r="24" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="str">
         <f t="shared" si="6"/>
         <v>2.6</v>
       </c>
-      <c r="B24" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="163"/>
-      <c r="E24" s="99">
+      <c r="B24" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="133"/>
+      <c r="E24" s="75">
         <v>44155</v>
       </c>
-      <c r="F24" s="100">
+      <c r="F24" s="76">
         <f t="shared" si="4"/>
         <v>44156</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="58">
         <v>2</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="59">
         <v>1</v>
       </c>
-      <c r="I24" s="164">
+      <c r="I24" s="134">
         <v>1</v>
       </c>
-      <c r="J24" s="165"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="106"/>
-      <c r="AL24" s="106"/>
-      <c r="AM24" s="106"/>
-      <c r="AN24" s="106"/>
-      <c r="AO24" s="106"/>
-      <c r="AP24" s="106"/>
-      <c r="AQ24" s="106"/>
-      <c r="AR24" s="106"/>
-      <c r="AS24" s="106"/>
-      <c r="AT24" s="106"/>
-      <c r="AU24" s="106"/>
-      <c r="AV24" s="106"/>
-      <c r="AW24" s="106"/>
-      <c r="AX24" s="106"/>
-      <c r="AY24" s="106"/>
-      <c r="AZ24" s="106"/>
-      <c r="BA24" s="106"/>
-      <c r="BB24" s="106"/>
-      <c r="BC24" s="106"/>
-      <c r="BD24" s="106"/>
-      <c r="BE24" s="106"/>
-      <c r="BF24" s="106"/>
-      <c r="BG24" s="106"/>
-      <c r="BH24" s="106"/>
-      <c r="BI24" s="106"/>
-      <c r="BJ24" s="106"/>
-      <c r="BK24" s="106"/>
-      <c r="BL24" s="106"/>
-      <c r="BM24" s="106"/>
-      <c r="BN24" s="106"/>
-    </row>
-    <row r="25" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="str">
+      <c r="J24" s="135"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="79"/>
+      <c r="AM24" s="79"/>
+      <c r="AN24" s="79"/>
+      <c r="AO24" s="79"/>
+      <c r="AP24" s="79"/>
+      <c r="AQ24" s="79"/>
+      <c r="AR24" s="79"/>
+      <c r="AS24" s="79"/>
+      <c r="AT24" s="79"/>
+      <c r="AU24" s="79"/>
+      <c r="AV24" s="79"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="79"/>
+      <c r="AZ24" s="79"/>
+      <c r="BA24" s="79"/>
+      <c r="BB24" s="79"/>
+      <c r="BC24" s="79"/>
+      <c r="BD24" s="79"/>
+      <c r="BE24" s="79"/>
+      <c r="BF24" s="79"/>
+      <c r="BG24" s="79"/>
+      <c r="BH24" s="79"/>
+      <c r="BI24" s="79"/>
+      <c r="BJ24" s="79"/>
+      <c r="BK24" s="79"/>
+      <c r="BL24" s="79"/>
+      <c r="BM24" s="79"/>
+      <c r="BN24" s="79"/>
+    </row>
+    <row r="25" spans="1:66" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101" t="str">
-        <f t="shared" ref="F25:F38" si="7">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+      <c r="B25" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77" t="str">
+        <f t="shared" ref="F25:F31" si="7">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58" t="str">
-        <f t="shared" ref="I25:I41" si="8">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55" t="str">
+        <f t="shared" ref="I25:I31" si="8">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J25" s="95"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="107"/>
-      <c r="AI25" s="107"/>
-      <c r="AJ25" s="107"/>
-      <c r="AK25" s="107"/>
-      <c r="AL25" s="107"/>
-      <c r="AM25" s="107"/>
-      <c r="AN25" s="107"/>
-      <c r="AO25" s="107"/>
-      <c r="AP25" s="107"/>
-      <c r="AQ25" s="107"/>
-      <c r="AR25" s="107"/>
-      <c r="AS25" s="107"/>
-      <c r="AT25" s="107"/>
-      <c r="AU25" s="107"/>
-      <c r="AV25" s="107"/>
-      <c r="AW25" s="107"/>
-      <c r="AX25" s="107"/>
-      <c r="AY25" s="107"/>
-      <c r="AZ25" s="107"/>
-      <c r="BA25" s="107"/>
-      <c r="BB25" s="107"/>
-      <c r="BC25" s="107"/>
-      <c r="BD25" s="107"/>
-      <c r="BE25" s="107"/>
-      <c r="BF25" s="107"/>
-      <c r="BG25" s="107"/>
-      <c r="BH25" s="107"/>
-      <c r="BI25" s="107"/>
-      <c r="BJ25" s="107"/>
-      <c r="BK25" s="107"/>
-      <c r="BL25" s="107"/>
-      <c r="BM25" s="107"/>
-      <c r="BN25" s="107"/>
-    </row>
-    <row r="26" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="str">
+      <c r="J25" s="74"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="80"/>
+      <c r="AD25" s="80"/>
+      <c r="AE25" s="80"/>
+      <c r="AF25" s="80"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="80"/>
+      <c r="AL25" s="80"/>
+      <c r="AM25" s="80"/>
+      <c r="AN25" s="80"/>
+      <c r="AO25" s="80"/>
+      <c r="AP25" s="80"/>
+      <c r="AQ25" s="80"/>
+      <c r="AR25" s="80"/>
+      <c r="AS25" s="80"/>
+      <c r="AT25" s="80"/>
+      <c r="AU25" s="80"/>
+      <c r="AV25" s="80"/>
+      <c r="AW25" s="80"/>
+      <c r="AX25" s="80"/>
+      <c r="AY25" s="80"/>
+      <c r="AZ25" s="80"/>
+      <c r="BA25" s="80"/>
+      <c r="BB25" s="80"/>
+      <c r="BC25" s="80"/>
+      <c r="BD25" s="80"/>
+      <c r="BE25" s="80"/>
+      <c r="BF25" s="80"/>
+      <c r="BG25" s="80"/>
+      <c r="BH25" s="80"/>
+      <c r="BI25" s="80"/>
+      <c r="BJ25" s="80"/>
+      <c r="BK25" s="80"/>
+      <c r="BL25" s="80"/>
+      <c r="BM25" s="80"/>
+      <c r="BN25" s="80"/>
+    </row>
+    <row r="26" spans="1:66" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B26" s="124" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="99">
-        <v>44166</v>
-      </c>
-      <c r="F26" s="100">
+      <c r="B26" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="98"/>
+      <c r="E26" s="75">
+        <v>44163</v>
+      </c>
+      <c r="F26" s="76">
         <f t="shared" si="7"/>
-        <v>44174</v>
-      </c>
-      <c r="G26" s="61">
-        <v>9</v>
-      </c>
-      <c r="H26" s="62">
+        <v>44168</v>
+      </c>
+      <c r="G26" s="58">
+        <v>6</v>
+      </c>
+      <c r="H26" s="59">
         <v>0.5</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="60">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="106"/>
-      <c r="AK26" s="106"/>
-      <c r="AL26" s="106"/>
-      <c r="AM26" s="106"/>
-      <c r="AN26" s="106"/>
-      <c r="AO26" s="106"/>
-      <c r="AP26" s="106"/>
-      <c r="AQ26" s="106"/>
-      <c r="AR26" s="106"/>
-      <c r="AS26" s="106"/>
-      <c r="AT26" s="106"/>
-      <c r="AU26" s="106"/>
-      <c r="AV26" s="106"/>
-      <c r="AW26" s="106"/>
-      <c r="AX26" s="106"/>
-      <c r="AY26" s="106"/>
-      <c r="AZ26" s="106"/>
-      <c r="BA26" s="106"/>
-      <c r="BB26" s="106"/>
-      <c r="BC26" s="106"/>
-      <c r="BD26" s="106"/>
-      <c r="BE26" s="106"/>
-      <c r="BF26" s="106"/>
-      <c r="BG26" s="106"/>
-      <c r="BH26" s="106"/>
-      <c r="BI26" s="106"/>
-      <c r="BJ26" s="106"/>
-      <c r="BK26" s="106"/>
-      <c r="BL26" s="106"/>
-      <c r="BM26" s="106"/>
-      <c r="BN26" s="106"/>
-    </row>
-    <row r="27" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="str">
+        <v>4</v>
+      </c>
+      <c r="J26" s="73"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="79"/>
+      <c r="BD26" s="79"/>
+      <c r="BE26" s="79"/>
+      <c r="BF26" s="79"/>
+      <c r="BG26" s="79"/>
+      <c r="BH26" s="79"/>
+      <c r="BI26" s="79"/>
+      <c r="BJ26" s="79"/>
+      <c r="BK26" s="79"/>
+      <c r="BL26" s="79"/>
+      <c r="BM26" s="79"/>
+      <c r="BN26" s="79"/>
+    </row>
+    <row r="27" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
       </c>
-      <c r="B27" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="99">
+      <c r="B27" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="98"/>
+      <c r="E27" s="75">
         <v>44166</v>
       </c>
-      <c r="F27" s="100">
+      <c r="F27" s="76">
         <f t="shared" si="7"/>
         <v>44167</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="58">
         <v>2</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="59">
         <v>0.5</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="60">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="106"/>
-      <c r="AM27" s="106"/>
-      <c r="AN27" s="106"/>
-      <c r="AO27" s="106"/>
-      <c r="AP27" s="106"/>
-      <c r="AQ27" s="106"/>
-      <c r="AR27" s="106"/>
-      <c r="AS27" s="106"/>
-      <c r="AT27" s="106"/>
-      <c r="AU27" s="106"/>
-      <c r="AV27" s="106"/>
-      <c r="AW27" s="106"/>
-      <c r="AX27" s="106"/>
-      <c r="AY27" s="106"/>
-      <c r="AZ27" s="106"/>
-      <c r="BA27" s="106"/>
-      <c r="BB27" s="106"/>
-      <c r="BC27" s="106"/>
-      <c r="BD27" s="106"/>
-      <c r="BE27" s="106"/>
-      <c r="BF27" s="106"/>
-      <c r="BG27" s="106"/>
-      <c r="BH27" s="106"/>
-      <c r="BI27" s="106"/>
-      <c r="BJ27" s="106"/>
-      <c r="BK27" s="106"/>
-      <c r="BL27" s="106"/>
-      <c r="BM27" s="106"/>
-      <c r="BN27" s="106"/>
-    </row>
-    <row r="28" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="str">
+      <c r="J27" s="73"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="79"/>
+      <c r="BA27" s="79"/>
+      <c r="BB27" s="79"/>
+      <c r="BC27" s="79"/>
+      <c r="BD27" s="79"/>
+      <c r="BE27" s="79"/>
+      <c r="BF27" s="79"/>
+      <c r="BG27" s="79"/>
+      <c r="BH27" s="79"/>
+      <c r="BI27" s="79"/>
+      <c r="BJ27" s="79"/>
+      <c r="BK27" s="79"/>
+      <c r="BL27" s="79"/>
+      <c r="BM27" s="79"/>
+      <c r="BN27" s="79"/>
+    </row>
+    <row r="28" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
       </c>
-      <c r="B28" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="99">
+      <c r="B28" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="98"/>
+      <c r="E28" s="75">
         <v>44167</v>
       </c>
-      <c r="F28" s="100">
+      <c r="F28" s="76">
         <f t="shared" si="7"/>
         <v>44168</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="58">
         <v>2</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="59">
         <v>0.5</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="60">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="J28" s="94"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="106"/>
-      <c r="AK28" s="106"/>
-      <c r="AL28" s="106"/>
-      <c r="AM28" s="106"/>
-      <c r="AN28" s="106"/>
-      <c r="AO28" s="106"/>
-      <c r="AP28" s="106"/>
-      <c r="AQ28" s="106"/>
-      <c r="AR28" s="106"/>
-      <c r="AS28" s="106"/>
-      <c r="AT28" s="106"/>
-      <c r="AU28" s="106"/>
-      <c r="AV28" s="106"/>
-      <c r="AW28" s="106"/>
-      <c r="AX28" s="106"/>
-      <c r="AY28" s="106"/>
-      <c r="AZ28" s="106"/>
-      <c r="BA28" s="106"/>
-      <c r="BB28" s="106"/>
-      <c r="BC28" s="106"/>
-      <c r="BD28" s="106"/>
-      <c r="BE28" s="106"/>
-      <c r="BF28" s="106"/>
-      <c r="BG28" s="106"/>
-      <c r="BH28" s="106"/>
-      <c r="BI28" s="106"/>
-      <c r="BJ28" s="106"/>
-      <c r="BK28" s="106"/>
-      <c r="BL28" s="106"/>
-      <c r="BM28" s="106"/>
-      <c r="BN28" s="106"/>
-    </row>
-    <row r="29" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="str">
+      <c r="J28" s="73"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="79"/>
+      <c r="BD28" s="79"/>
+      <c r="BE28" s="79"/>
+      <c r="BF28" s="79"/>
+      <c r="BG28" s="79"/>
+      <c r="BH28" s="79"/>
+      <c r="BI28" s="79"/>
+      <c r="BJ28" s="79"/>
+      <c r="BK28" s="79"/>
+      <c r="BL28" s="79"/>
+      <c r="BM28" s="79"/>
+      <c r="BN28" s="79"/>
+    </row>
+    <row r="29" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.3</v>
       </c>
-      <c r="B29" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="99">
+      <c r="B29" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="98"/>
+      <c r="E29" s="75">
         <v>44168</v>
       </c>
-      <c r="F29" s="100">
+      <c r="F29" s="76">
         <f t="shared" si="7"/>
         <v>44169</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="58">
         <v>2</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="59">
         <v>0.5</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="60">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="106"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="106"/>
-      <c r="AL29" s="106"/>
-      <c r="AM29" s="106"/>
-      <c r="AN29" s="106"/>
-      <c r="AO29" s="106"/>
-      <c r="AP29" s="106"/>
-      <c r="AQ29" s="106"/>
-      <c r="AR29" s="106"/>
-      <c r="AS29" s="106"/>
-      <c r="AT29" s="106"/>
-      <c r="AU29" s="106"/>
-      <c r="AV29" s="106"/>
-      <c r="AW29" s="106"/>
-      <c r="AX29" s="106"/>
-      <c r="AY29" s="106"/>
-      <c r="AZ29" s="106"/>
-      <c r="BA29" s="106"/>
-      <c r="BB29" s="106"/>
-      <c r="BC29" s="106"/>
-      <c r="BD29" s="106"/>
-      <c r="BE29" s="106"/>
-      <c r="BF29" s="106"/>
-      <c r="BG29" s="106"/>
-      <c r="BH29" s="106"/>
-      <c r="BI29" s="106"/>
-      <c r="BJ29" s="106"/>
-      <c r="BK29" s="106"/>
-      <c r="BL29" s="106"/>
-      <c r="BM29" s="106"/>
-      <c r="BN29" s="106"/>
-    </row>
-    <row r="30" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="str">
+      <c r="J29" s="73"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="79"/>
+      <c r="BB29" s="79"/>
+      <c r="BC29" s="79"/>
+      <c r="BD29" s="79"/>
+      <c r="BE29" s="79"/>
+      <c r="BF29" s="79"/>
+      <c r="BG29" s="79"/>
+      <c r="BH29" s="79"/>
+      <c r="BI29" s="79"/>
+      <c r="BJ29" s="79"/>
+      <c r="BK29" s="79"/>
+      <c r="BL29" s="79"/>
+      <c r="BM29" s="79"/>
+      <c r="BN29" s="79"/>
+    </row>
+    <row r="30" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.4</v>
       </c>
-      <c r="B30" s="126" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="99">
+      <c r="B30" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="75">
         <v>44169</v>
       </c>
-      <c r="F30" s="100">
+      <c r="F30" s="76">
         <f t="shared" si="7"/>
         <v>44170</v>
       </c>
-      <c r="G30" s="61">
+      <c r="G30" s="58">
         <v>2</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="59">
         <v>0.5</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="60">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="106"/>
-      <c r="AF30" s="106"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="106"/>
-      <c r="AJ30" s="106"/>
-      <c r="AK30" s="106"/>
-      <c r="AL30" s="106"/>
-      <c r="AM30" s="106"/>
-      <c r="AN30" s="106"/>
-      <c r="AO30" s="106"/>
-      <c r="AP30" s="106"/>
-      <c r="AQ30" s="106"/>
-      <c r="AR30" s="106"/>
-      <c r="AS30" s="106"/>
-      <c r="AT30" s="106"/>
-      <c r="AU30" s="106"/>
-      <c r="AV30" s="106"/>
-      <c r="AW30" s="106"/>
-      <c r="AX30" s="106"/>
-      <c r="AY30" s="106"/>
-      <c r="AZ30" s="106"/>
-      <c r="BA30" s="106"/>
-      <c r="BB30" s="106"/>
-      <c r="BC30" s="106"/>
-      <c r="BD30" s="106"/>
-      <c r="BE30" s="106"/>
-      <c r="BF30" s="106"/>
-      <c r="BG30" s="106"/>
-      <c r="BH30" s="106"/>
-      <c r="BI30" s="106"/>
-      <c r="BJ30" s="106"/>
-      <c r="BK30" s="106"/>
-      <c r="BL30" s="106"/>
-      <c r="BM30" s="106"/>
-      <c r="BN30" s="106"/>
-    </row>
-    <row r="31" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="str">
-        <f t="shared" ref="A31:A33" si="9">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+      <c r="J30" s="73"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="79"/>
+      <c r="AT30" s="79"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="79"/>
+      <c r="AZ30" s="79"/>
+      <c r="BA30" s="79"/>
+      <c r="BB30" s="79"/>
+      <c r="BC30" s="79"/>
+      <c r="BD30" s="79"/>
+      <c r="BE30" s="79"/>
+      <c r="BF30" s="79"/>
+      <c r="BG30" s="79"/>
+      <c r="BH30" s="79"/>
+      <c r="BI30" s="79"/>
+      <c r="BJ30" s="79"/>
+      <c r="BK30" s="79"/>
+      <c r="BL30" s="79"/>
+      <c r="BM30" s="79"/>
+      <c r="BN30" s="79"/>
+    </row>
+    <row r="31" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="str">
+        <f t="shared" ref="A31:A34" si="9">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B31" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="125"/>
-      <c r="E31" s="99">
+      <c r="B31" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="98"/>
+      <c r="E31" s="75">
         <v>44167</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="76">
         <f t="shared" si="7"/>
         <v>44169</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="58">
         <v>3</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="59">
         <v>1</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="60">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="106"/>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="106"/>
-      <c r="AF31" s="106"/>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="106"/>
-      <c r="AI31" s="106"/>
-      <c r="AJ31" s="106"/>
-      <c r="AK31" s="106"/>
-      <c r="AL31" s="106"/>
-      <c r="AM31" s="106"/>
-      <c r="AN31" s="106"/>
-      <c r="AO31" s="106"/>
-      <c r="AP31" s="106"/>
-      <c r="AQ31" s="106"/>
-      <c r="AR31" s="106"/>
-      <c r="AS31" s="106"/>
-      <c r="AT31" s="106"/>
-      <c r="AU31" s="106"/>
-      <c r="AV31" s="106"/>
-      <c r="AW31" s="106"/>
-      <c r="AX31" s="106"/>
-      <c r="AY31" s="106"/>
-      <c r="AZ31" s="106"/>
-      <c r="BA31" s="106"/>
-      <c r="BB31" s="106"/>
-      <c r="BC31" s="106"/>
-      <c r="BD31" s="106"/>
-      <c r="BE31" s="106"/>
-      <c r="BF31" s="106"/>
-      <c r="BG31" s="106"/>
-      <c r="BH31" s="106"/>
-      <c r="BI31" s="106"/>
-      <c r="BJ31" s="106"/>
-      <c r="BK31" s="106"/>
-      <c r="BL31" s="106"/>
-      <c r="BM31" s="106"/>
-      <c r="BN31" s="106"/>
-    </row>
-    <row r="32" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="str">
+      <c r="J31" s="73"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="79"/>
+      <c r="AM31" s="79"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="79"/>
+      <c r="AP31" s="79"/>
+      <c r="AQ31" s="79"/>
+      <c r="AR31" s="79"/>
+      <c r="AS31" s="79"/>
+      <c r="AT31" s="79"/>
+      <c r="AU31" s="79"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="79"/>
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="79"/>
+      <c r="AZ31" s="79"/>
+      <c r="BA31" s="79"/>
+      <c r="BB31" s="79"/>
+      <c r="BC31" s="79"/>
+      <c r="BD31" s="79"/>
+      <c r="BE31" s="79"/>
+      <c r="BF31" s="79"/>
+      <c r="BG31" s="79"/>
+      <c r="BH31" s="79"/>
+      <c r="BI31" s="79"/>
+      <c r="BJ31" s="79"/>
+      <c r="BK31" s="79"/>
+      <c r="BL31" s="79"/>
+      <c r="BM31" s="79"/>
+      <c r="BN31" s="79"/>
+    </row>
+    <row r="32" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="str">
         <f t="shared" si="9"/>
         <v>3.3</v>
       </c>
-      <c r="B32" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="125"/>
-      <c r="E32" s="99">
+      <c r="B32" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="98"/>
+      <c r="E32" s="75">
         <v>44167</v>
       </c>
-      <c r="F32" s="100">
+      <c r="F32" s="76">
         <f t="shared" ref="F32" si="10">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
         <v>44171</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32" s="58">
         <v>5</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="59">
         <v>1</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I32" s="60">
         <f t="shared" ref="I32" si="11">IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
         <v>3</v>
       </c>
-      <c r="J32" s="94"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="106"/>
-      <c r="AC32" s="106"/>
-      <c r="AD32" s="106"/>
-      <c r="AE32" s="106"/>
-      <c r="AF32" s="106"/>
-      <c r="AG32" s="106"/>
-      <c r="AH32" s="106"/>
-      <c r="AI32" s="106"/>
-      <c r="AJ32" s="106"/>
-      <c r="AK32" s="106"/>
-      <c r="AL32" s="106"/>
-      <c r="AM32" s="106"/>
-      <c r="AN32" s="106"/>
-      <c r="AO32" s="106"/>
-      <c r="AP32" s="106"/>
-      <c r="AQ32" s="106"/>
-      <c r="AR32" s="106"/>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="106"/>
-      <c r="AU32" s="106"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
-      <c r="AX32" s="106"/>
-      <c r="AY32" s="106"/>
-      <c r="AZ32" s="106"/>
-      <c r="BA32" s="106"/>
-      <c r="BB32" s="106"/>
-      <c r="BC32" s="106"/>
-      <c r="BD32" s="106"/>
-      <c r="BE32" s="106"/>
-      <c r="BF32" s="106"/>
-      <c r="BG32" s="106"/>
-      <c r="BH32" s="106"/>
-      <c r="BI32" s="106"/>
-      <c r="BJ32" s="106"/>
-      <c r="BK32" s="106"/>
-      <c r="BL32" s="106"/>
-      <c r="BM32" s="106"/>
-      <c r="BN32" s="106"/>
-    </row>
-    <row r="33" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="str">
+      <c r="J32" s="73"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="79"/>
+      <c r="AM32" s="79"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="79"/>
+      <c r="AT32" s="79"/>
+      <c r="AU32" s="79"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="79"/>
+      <c r="AZ32" s="79"/>
+      <c r="BA32" s="79"/>
+      <c r="BB32" s="79"/>
+      <c r="BC32" s="79"/>
+      <c r="BD32" s="79"/>
+      <c r="BE32" s="79"/>
+      <c r="BF32" s="79"/>
+      <c r="BG32" s="79"/>
+      <c r="BH32" s="79"/>
+      <c r="BI32" s="79"/>
+      <c r="BJ32" s="79"/>
+      <c r="BK32" s="79"/>
+      <c r="BL32" s="79"/>
+      <c r="BM32" s="79"/>
+      <c r="BN32" s="79"/>
+    </row>
+    <row r="33" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="str">
         <f t="shared" si="9"/>
         <v>3.4</v>
       </c>
-      <c r="B33" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="125"/>
-      <c r="E33" s="99">
+      <c r="B33" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="98"/>
+      <c r="E33" s="75">
         <v>44167</v>
       </c>
-      <c r="F33" s="100">
+      <c r="F33" s="76">
         <f t="shared" ref="F33" si="12">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
         <v>44170</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="58">
         <v>4</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="59">
         <v>0.5</v>
       </c>
-      <c r="I33" s="63">
+      <c r="I33" s="60">
         <f t="shared" ref="I33" si="13">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
         <v>3</v>
       </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="106"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="106"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="106"/>
-      <c r="AL33" s="106"/>
-      <c r="AM33" s="106"/>
-      <c r="AN33" s="106"/>
-      <c r="AO33" s="106"/>
-      <c r="AP33" s="106"/>
-      <c r="AQ33" s="106"/>
-      <c r="AR33" s="106"/>
-      <c r="AS33" s="106"/>
-      <c r="AT33" s="106"/>
-      <c r="AU33" s="106"/>
-      <c r="AV33" s="106"/>
-      <c r="AW33" s="106"/>
-      <c r="AX33" s="106"/>
-      <c r="AY33" s="106"/>
-      <c r="AZ33" s="106"/>
-      <c r="BA33" s="106"/>
-      <c r="BB33" s="106"/>
-      <c r="BC33" s="106"/>
-      <c r="BD33" s="106"/>
-      <c r="BE33" s="106"/>
-      <c r="BF33" s="106"/>
-      <c r="BG33" s="106"/>
-      <c r="BH33" s="106"/>
-      <c r="BI33" s="106"/>
-      <c r="BJ33" s="106"/>
-      <c r="BK33" s="106"/>
-      <c r="BL33" s="106"/>
-      <c r="BM33" s="106"/>
-      <c r="BN33" s="106"/>
-    </row>
-    <row r="34" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J34" s="95"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="107"/>
-      <c r="AH34" s="107"/>
-      <c r="AI34" s="107"/>
-      <c r="AJ34" s="107"/>
-      <c r="AK34" s="107"/>
-      <c r="AL34" s="107"/>
-      <c r="AM34" s="107"/>
-      <c r="AN34" s="107"/>
-      <c r="AO34" s="107"/>
-      <c r="AP34" s="107"/>
-      <c r="AQ34" s="107"/>
-      <c r="AR34" s="107"/>
-      <c r="AS34" s="107"/>
-      <c r="AT34" s="107"/>
-      <c r="AU34" s="107"/>
-      <c r="AV34" s="107"/>
-      <c r="AW34" s="107"/>
-      <c r="AX34" s="107"/>
-      <c r="AY34" s="107"/>
-      <c r="AZ34" s="107"/>
-      <c r="BA34" s="107"/>
-      <c r="BB34" s="107"/>
-      <c r="BC34" s="107"/>
-      <c r="BD34" s="107"/>
-      <c r="BE34" s="107"/>
-      <c r="BF34" s="107"/>
-      <c r="BG34" s="107"/>
-      <c r="BH34" s="107"/>
-      <c r="BI34" s="107"/>
-      <c r="BJ34" s="107"/>
-      <c r="BK34" s="107"/>
-      <c r="BL34" s="107"/>
-      <c r="BM34" s="107"/>
-      <c r="BN34" s="107"/>
-    </row>
-    <row r="35" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B35" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="99">
-        <v>44167</v>
-      </c>
-      <c r="F35" s="100">
-        <f>IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
-        <v>44167</v>
-      </c>
-      <c r="G35" s="61">
+      <c r="J33" s="73"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="79"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="79"/>
+      <c r="AJ33" s="79"/>
+      <c r="AK33" s="79"/>
+      <c r="AL33" s="79"/>
+      <c r="AM33" s="79"/>
+      <c r="AN33" s="79"/>
+      <c r="AO33" s="79"/>
+      <c r="AP33" s="79"/>
+      <c r="AQ33" s="79"/>
+      <c r="AR33" s="79"/>
+      <c r="AS33" s="79"/>
+      <c r="AT33" s="79"/>
+      <c r="AU33" s="79"/>
+      <c r="AV33" s="79"/>
+      <c r="AW33" s="79"/>
+      <c r="AX33" s="79"/>
+      <c r="AY33" s="79"/>
+      <c r="AZ33" s="79"/>
+      <c r="BA33" s="79"/>
+      <c r="BB33" s="79"/>
+      <c r="BC33" s="79"/>
+      <c r="BD33" s="79"/>
+      <c r="BE33" s="79"/>
+      <c r="BF33" s="79"/>
+      <c r="BG33" s="79"/>
+      <c r="BH33" s="79"/>
+      <c r="BI33" s="79"/>
+      <c r="BJ33" s="79"/>
+      <c r="BK33" s="79"/>
+      <c r="BL33" s="79"/>
+      <c r="BM33" s="79"/>
+      <c r="BN33" s="79"/>
+    </row>
+    <row r="34" spans="1:66" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="B34" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="98"/>
+      <c r="E34" s="75">
+        <v>44169</v>
+      </c>
+      <c r="F34" s="76">
+        <f t="shared" ref="F34" si="14">IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
+        <v>44171</v>
+      </c>
+      <c r="G34" s="58">
+        <v>3</v>
+      </c>
+      <c r="H34" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="60">
+        <f t="shared" ref="I34" si="15">IF(OR(F34=0,E34=0)," - ",NETWORKDAYS(E34,F34))</f>
         <v>1</v>
       </c>
-      <c r="H35" s="62">
-        <v>0</v>
-      </c>
-      <c r="I35" s="63">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="94"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
-      <c r="AA35" s="106"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="106"/>
-      <c r="AD35" s="106"/>
-      <c r="AE35" s="106"/>
-      <c r="AF35" s="106"/>
-      <c r="AG35" s="106"/>
-      <c r="AH35" s="106"/>
-      <c r="AI35" s="106"/>
-      <c r="AJ35" s="106"/>
-      <c r="AK35" s="106"/>
-      <c r="AL35" s="106"/>
-      <c r="AM35" s="106"/>
-      <c r="AN35" s="106"/>
-      <c r="AO35" s="106"/>
-      <c r="AP35" s="106"/>
-      <c r="AQ35" s="106"/>
-      <c r="AR35" s="106"/>
-      <c r="AS35" s="106"/>
-      <c r="AT35" s="106"/>
-      <c r="AU35" s="106"/>
-      <c r="AV35" s="106"/>
-      <c r="AW35" s="106"/>
-      <c r="AX35" s="106"/>
-      <c r="AY35" s="106"/>
-      <c r="AZ35" s="106"/>
-      <c r="BA35" s="106"/>
-      <c r="BB35" s="106"/>
-      <c r="BC35" s="106"/>
-      <c r="BD35" s="106"/>
-      <c r="BE35" s="106"/>
-      <c r="BF35" s="106"/>
-      <c r="BG35" s="106"/>
-      <c r="BH35" s="106"/>
-      <c r="BI35" s="106"/>
-      <c r="BJ35" s="106"/>
-      <c r="BK35" s="106"/>
-      <c r="BL35" s="106"/>
-      <c r="BM35" s="106"/>
-      <c r="BN35" s="106"/>
-    </row>
-    <row r="36" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B36" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="99">
-        <v>44168</v>
-      </c>
-      <c r="F36" s="100">
-        <f t="shared" si="7"/>
-        <v>44168</v>
-      </c>
-      <c r="G36" s="61">
-        <v>1</v>
-      </c>
-      <c r="H36" s="62">
-        <v>0</v>
-      </c>
-      <c r="I36" s="63">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J36" s="94"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="106"/>
-      <c r="AD36" s="106"/>
-      <c r="AE36" s="106"/>
-      <c r="AF36" s="106"/>
-      <c r="AG36" s="106"/>
-      <c r="AH36" s="106"/>
-      <c r="AI36" s="106"/>
-      <c r="AJ36" s="106"/>
-      <c r="AK36" s="106"/>
-      <c r="AL36" s="106"/>
-      <c r="AM36" s="106"/>
-      <c r="AN36" s="106"/>
-      <c r="AO36" s="106"/>
-      <c r="AP36" s="106"/>
-      <c r="AQ36" s="106"/>
-      <c r="AR36" s="106"/>
-      <c r="AS36" s="106"/>
-      <c r="AT36" s="106"/>
-      <c r="AU36" s="106"/>
-      <c r="AV36" s="106"/>
-      <c r="AW36" s="106"/>
-      <c r="AX36" s="106"/>
-      <c r="AY36" s="106"/>
-      <c r="AZ36" s="106"/>
-      <c r="BA36" s="106"/>
-      <c r="BB36" s="106"/>
-      <c r="BC36" s="106"/>
-      <c r="BD36" s="106"/>
-      <c r="BE36" s="106"/>
-      <c r="BF36" s="106"/>
-      <c r="BG36" s="106"/>
-      <c r="BH36" s="106"/>
-      <c r="BI36" s="106"/>
-      <c r="BJ36" s="106"/>
-      <c r="BK36" s="106"/>
-      <c r="BL36" s="106"/>
-      <c r="BM36" s="106"/>
-      <c r="BN36" s="106"/>
-    </row>
-    <row r="37" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B37" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="99">
-        <v>44169</v>
-      </c>
-      <c r="F37" s="100">
-        <f t="shared" si="7"/>
-        <v>44169</v>
-      </c>
-      <c r="G37" s="61">
-        <v>1</v>
-      </c>
-      <c r="H37" s="62">
-        <v>0</v>
-      </c>
-      <c r="I37" s="63">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J37" s="94"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="106"/>
-      <c r="Z37" s="106"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="106"/>
-      <c r="AC37" s="106"/>
-      <c r="AD37" s="106"/>
-      <c r="AE37" s="106"/>
-      <c r="AF37" s="106"/>
-      <c r="AG37" s="106"/>
-      <c r="AH37" s="106"/>
-      <c r="AI37" s="106"/>
-      <c r="AJ37" s="106"/>
-      <c r="AK37" s="106"/>
-      <c r="AL37" s="106"/>
-      <c r="AM37" s="106"/>
-      <c r="AN37" s="106"/>
-      <c r="AO37" s="106"/>
-      <c r="AP37" s="106"/>
-      <c r="AQ37" s="106"/>
-      <c r="AR37" s="106"/>
-      <c r="AS37" s="106"/>
-      <c r="AT37" s="106"/>
-      <c r="AU37" s="106"/>
-      <c r="AV37" s="106"/>
-      <c r="AW37" s="106"/>
-      <c r="AX37" s="106"/>
-      <c r="AY37" s="106"/>
-      <c r="AZ37" s="106"/>
-      <c r="BA37" s="106"/>
-      <c r="BB37" s="106"/>
-      <c r="BC37" s="106"/>
-      <c r="BD37" s="106"/>
-      <c r="BE37" s="106"/>
-      <c r="BF37" s="106"/>
-      <c r="BG37" s="106"/>
-      <c r="BH37" s="106"/>
-      <c r="BI37" s="106"/>
-      <c r="BJ37" s="106"/>
-      <c r="BK37" s="106"/>
-      <c r="BL37" s="106"/>
-      <c r="BM37" s="106"/>
-      <c r="BN37" s="106"/>
-    </row>
-    <row r="38" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B38" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="99">
-        <v>44170</v>
-      </c>
-      <c r="F38" s="100">
-        <f t="shared" si="7"/>
-        <v>44170</v>
-      </c>
-      <c r="G38" s="61">
-        <v>1</v>
-      </c>
-      <c r="H38" s="62">
-        <v>0</v>
-      </c>
-      <c r="I38" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="94"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="106"/>
-      <c r="U38" s="106"/>
-      <c r="V38" s="106"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="106"/>
-      <c r="Y38" s="106"/>
-      <c r="Z38" s="106"/>
-      <c r="AA38" s="106"/>
-      <c r="AB38" s="106"/>
-      <c r="AC38" s="106"/>
-      <c r="AD38" s="106"/>
-      <c r="AE38" s="106"/>
-      <c r="AF38" s="106"/>
-      <c r="AG38" s="106"/>
-      <c r="AH38" s="106"/>
-      <c r="AI38" s="106"/>
-      <c r="AJ38" s="106"/>
-      <c r="AK38" s="106"/>
-      <c r="AL38" s="106"/>
-      <c r="AM38" s="106"/>
-      <c r="AN38" s="106"/>
-      <c r="AO38" s="106"/>
-      <c r="AP38" s="106"/>
-      <c r="AQ38" s="106"/>
-      <c r="AR38" s="106"/>
-      <c r="AS38" s="106"/>
-      <c r="AT38" s="106"/>
-      <c r="AU38" s="106"/>
-      <c r="AV38" s="106"/>
-      <c r="AW38" s="106"/>
-      <c r="AX38" s="106"/>
-      <c r="AY38" s="106"/>
-      <c r="AZ38" s="106"/>
-      <c r="BA38" s="106"/>
-      <c r="BB38" s="106"/>
-      <c r="BC38" s="106"/>
-      <c r="BD38" s="106"/>
-      <c r="BE38" s="106"/>
-      <c r="BF38" s="106"/>
-      <c r="BG38" s="106"/>
-      <c r="BH38" s="106"/>
-      <c r="BI38" s="106"/>
-      <c r="BJ38" s="106"/>
-      <c r="BK38" s="106"/>
-      <c r="BL38" s="106"/>
-      <c r="BM38" s="106"/>
-      <c r="BN38" s="106"/>
-    </row>
-    <row r="39" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B39" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="99">
-        <v>44170</v>
-      </c>
-      <c r="F39" s="100">
-        <f>IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
-        <v>44170</v>
-      </c>
-      <c r="G39" s="61">
-        <v>1</v>
-      </c>
-      <c r="H39" s="62">
-        <v>0</v>
-      </c>
-      <c r="I39" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="94"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="106"/>
-      <c r="T39" s="106"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="106"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="106"/>
-      <c r="AA39" s="106"/>
-      <c r="AB39" s="106"/>
-      <c r="AC39" s="106"/>
-      <c r="AD39" s="106"/>
-      <c r="AE39" s="106"/>
-      <c r="AF39" s="106"/>
-      <c r="AG39" s="106"/>
-      <c r="AH39" s="106"/>
-      <c r="AI39" s="106"/>
-      <c r="AJ39" s="106"/>
-      <c r="AK39" s="106"/>
-      <c r="AL39" s="106"/>
-      <c r="AM39" s="106"/>
-      <c r="AN39" s="106"/>
-      <c r="AO39" s="106"/>
-      <c r="AP39" s="106"/>
-      <c r="AQ39" s="106"/>
-      <c r="AR39" s="106"/>
-      <c r="AS39" s="106"/>
-      <c r="AT39" s="106"/>
-      <c r="AU39" s="106"/>
-      <c r="AV39" s="106"/>
-      <c r="AW39" s="106"/>
-      <c r="AX39" s="106"/>
-      <c r="AY39" s="106"/>
-      <c r="AZ39" s="106"/>
-      <c r="BA39" s="106"/>
-      <c r="BB39" s="106"/>
-      <c r="BC39" s="106"/>
-      <c r="BD39" s="106"/>
-      <c r="BE39" s="106"/>
-      <c r="BF39" s="106"/>
-      <c r="BG39" s="106"/>
-      <c r="BH39" s="106"/>
-      <c r="BI39" s="106"/>
-      <c r="BJ39" s="106"/>
-      <c r="BK39" s="106"/>
-      <c r="BL39" s="106"/>
-      <c r="BM39" s="106"/>
-      <c r="BN39" s="106"/>
-    </row>
-    <row r="40" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J40" s="96"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="106"/>
-      <c r="T40" s="106"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="106"/>
-      <c r="AA40" s="106"/>
-      <c r="AB40" s="106"/>
-      <c r="AC40" s="106"/>
-      <c r="AD40" s="106"/>
-      <c r="AE40" s="106"/>
-      <c r="AF40" s="106"/>
-      <c r="AG40" s="106"/>
-      <c r="AH40" s="106"/>
-      <c r="AI40" s="106"/>
-      <c r="AJ40" s="106"/>
-      <c r="AK40" s="106"/>
-      <c r="AL40" s="106"/>
-      <c r="AM40" s="106"/>
-      <c r="AN40" s="106"/>
-      <c r="AO40" s="106"/>
-      <c r="AP40" s="106"/>
-      <c r="AQ40" s="106"/>
-      <c r="AR40" s="106"/>
-      <c r="AS40" s="106"/>
-      <c r="AT40" s="106"/>
-      <c r="AU40" s="106"/>
-      <c r="AV40" s="106"/>
-      <c r="AW40" s="106"/>
-      <c r="AX40" s="106"/>
-      <c r="AY40" s="106"/>
-      <c r="AZ40" s="106"/>
-      <c r="BA40" s="106"/>
-      <c r="BB40" s="106"/>
-      <c r="BC40" s="106"/>
-      <c r="BD40" s="106"/>
-      <c r="BE40" s="106"/>
-      <c r="BF40" s="106"/>
-      <c r="BG40" s="106"/>
-      <c r="BH40" s="106"/>
-      <c r="BI40" s="106"/>
-      <c r="BJ40" s="106"/>
-      <c r="BK40" s="106"/>
-      <c r="BL40" s="106"/>
-      <c r="BM40" s="106"/>
-      <c r="BN40" s="106"/>
-    </row>
-    <row r="41" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J41" s="96"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="106"/>
-      <c r="T41" s="106"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="106"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="106"/>
-      <c r="Y41" s="106"/>
-      <c r="Z41" s="106"/>
-      <c r="AA41" s="106"/>
-      <c r="AB41" s="106"/>
-      <c r="AC41" s="106"/>
-      <c r="AD41" s="106"/>
-      <c r="AE41" s="106"/>
-      <c r="AF41" s="106"/>
-      <c r="AG41" s="106"/>
-      <c r="AH41" s="106"/>
-      <c r="AI41" s="106"/>
-      <c r="AJ41" s="106"/>
-      <c r="AK41" s="106"/>
-      <c r="AL41" s="106"/>
-      <c r="AM41" s="106"/>
-      <c r="AN41" s="106"/>
-      <c r="AO41" s="106"/>
-      <c r="AP41" s="106"/>
-      <c r="AQ41" s="106"/>
-      <c r="AR41" s="106"/>
-      <c r="AS41" s="106"/>
-      <c r="AT41" s="106"/>
-      <c r="AU41" s="106"/>
-      <c r="AV41" s="106"/>
-      <c r="AW41" s="106"/>
-      <c r="AX41" s="106"/>
-      <c r="AY41" s="106"/>
-      <c r="AZ41" s="106"/>
-      <c r="BA41" s="106"/>
-      <c r="BB41" s="106"/>
-      <c r="BC41" s="106"/>
-      <c r="BD41" s="106"/>
-      <c r="BE41" s="106"/>
-      <c r="BF41" s="106"/>
-      <c r="BG41" s="106"/>
-      <c r="BH41" s="106"/>
-      <c r="BI41" s="106"/>
-      <c r="BJ41" s="106"/>
-      <c r="BK41" s="106"/>
-      <c r="BL41" s="106"/>
-      <c r="BM41" s="106"/>
-      <c r="BN41" s="106"/>
-    </row>
-    <row r="42" spans="1:66" s="74" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="106"/>
-      <c r="AA42" s="106"/>
-      <c r="AB42" s="106"/>
-      <c r="AC42" s="106"/>
-      <c r="AD42" s="106"/>
-      <c r="AE42" s="106"/>
-      <c r="AF42" s="106"/>
-      <c r="AG42" s="106"/>
-      <c r="AH42" s="106"/>
-      <c r="AI42" s="106"/>
-      <c r="AJ42" s="106"/>
-      <c r="AK42" s="106"/>
-      <c r="AL42" s="106"/>
-      <c r="AM42" s="106"/>
-      <c r="AN42" s="106"/>
-      <c r="AO42" s="106"/>
-      <c r="AP42" s="106"/>
-      <c r="AQ42" s="106"/>
-      <c r="AR42" s="106"/>
-      <c r="AS42" s="106"/>
-      <c r="AT42" s="106"/>
-      <c r="AU42" s="106"/>
-      <c r="AV42" s="106"/>
-      <c r="AW42" s="106"/>
-      <c r="AX42" s="106"/>
-      <c r="AY42" s="106"/>
-      <c r="AZ42" s="106"/>
-      <c r="BA42" s="106"/>
-      <c r="BB42" s="106"/>
-      <c r="BC42" s="106"/>
-      <c r="BD42" s="106"/>
-      <c r="BE42" s="106"/>
-      <c r="BF42" s="106"/>
-      <c r="BG42" s="106"/>
-      <c r="BH42" s="106"/>
-      <c r="BI42" s="106"/>
-      <c r="BJ42" s="106"/>
-      <c r="BK42" s="106"/>
-      <c r="BL42" s="106"/>
-      <c r="BM42" s="106"/>
-      <c r="BN42" s="106"/>
-    </row>
-    <row r="43" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="106"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
-      <c r="AB43" s="106"/>
-      <c r="AC43" s="106"/>
-      <c r="AD43" s="106"/>
-      <c r="AE43" s="106"/>
-      <c r="AF43" s="106"/>
-      <c r="AG43" s="106"/>
-      <c r="AH43" s="106"/>
-      <c r="AI43" s="106"/>
-      <c r="AJ43" s="106"/>
-      <c r="AK43" s="106"/>
-      <c r="AL43" s="106"/>
-      <c r="AM43" s="106"/>
-      <c r="AN43" s="106"/>
-      <c r="AO43" s="106"/>
-      <c r="AP43" s="106"/>
-      <c r="AQ43" s="106"/>
-      <c r="AR43" s="106"/>
-      <c r="AS43" s="106"/>
-      <c r="AT43" s="106"/>
-      <c r="AU43" s="106"/>
-      <c r="AV43" s="106"/>
-      <c r="AW43" s="106"/>
-      <c r="AX43" s="106"/>
-      <c r="AY43" s="106"/>
-      <c r="AZ43" s="106"/>
-      <c r="BA43" s="106"/>
-      <c r="BB43" s="106"/>
-      <c r="BC43" s="106"/>
-      <c r="BD43" s="106"/>
-      <c r="BE43" s="106"/>
-      <c r="BF43" s="106"/>
-      <c r="BG43" s="106"/>
-      <c r="BH43" s="106"/>
-      <c r="BI43" s="106"/>
-      <c r="BJ43" s="106"/>
-      <c r="BK43" s="106"/>
-      <c r="BL43" s="106"/>
-      <c r="BM43" s="106"/>
-      <c r="BN43" s="106"/>
-    </row>
-    <row r="44" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="128" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B44" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="100" t="str">
-        <f t="shared" ref="F44:F47" si="14">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="79" t="str">
-        <f>IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J44" s="98"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="106"/>
-      <c r="T44" s="106"/>
-      <c r="U44" s="106"/>
-      <c r="V44" s="106"/>
-      <c r="W44" s="106"/>
-      <c r="X44" s="106"/>
-      <c r="Y44" s="106"/>
-      <c r="Z44" s="106"/>
-      <c r="AA44" s="106"/>
-      <c r="AB44" s="106"/>
-      <c r="AC44" s="106"/>
-      <c r="AD44" s="106"/>
-      <c r="AE44" s="106"/>
-      <c r="AF44" s="106"/>
-      <c r="AG44" s="106"/>
-      <c r="AH44" s="106"/>
-      <c r="AI44" s="106"/>
-      <c r="AJ44" s="106"/>
-      <c r="AK44" s="106"/>
-      <c r="AL44" s="106"/>
-      <c r="AM44" s="106"/>
-      <c r="AN44" s="106"/>
-      <c r="AO44" s="106"/>
-      <c r="AP44" s="106"/>
-      <c r="AQ44" s="106"/>
-      <c r="AR44" s="106"/>
-      <c r="AS44" s="106"/>
-      <c r="AT44" s="106"/>
-      <c r="AU44" s="106"/>
-      <c r="AV44" s="106"/>
-      <c r="AW44" s="106"/>
-      <c r="AX44" s="106"/>
-      <c r="AY44" s="106"/>
-      <c r="AZ44" s="106"/>
-      <c r="BA44" s="106"/>
-      <c r="BB44" s="106"/>
-      <c r="BC44" s="106"/>
-      <c r="BD44" s="106"/>
-      <c r="BE44" s="106"/>
-      <c r="BF44" s="106"/>
-      <c r="BG44" s="106"/>
-      <c r="BH44" s="106"/>
-      <c r="BI44" s="106"/>
-      <c r="BJ44" s="106"/>
-      <c r="BK44" s="106"/>
-      <c r="BL44" s="106"/>
-      <c r="BM44" s="106"/>
-      <c r="BN44" s="106"/>
-    </row>
-    <row r="45" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="100" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="79" t="str">
-        <f t="shared" ref="I45:I47" si="15">IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J45" s="98"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="106"/>
-      <c r="T45" s="106"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="106"/>
-      <c r="W45" s="106"/>
-      <c r="X45" s="106"/>
-      <c r="Y45" s="106"/>
-      <c r="Z45" s="106"/>
-      <c r="AA45" s="106"/>
-      <c r="AB45" s="106"/>
-      <c r="AC45" s="106"/>
-      <c r="AD45" s="106"/>
-      <c r="AE45" s="106"/>
-      <c r="AF45" s="106"/>
-      <c r="AG45" s="106"/>
-      <c r="AH45" s="106"/>
-      <c r="AI45" s="106"/>
-      <c r="AJ45" s="106"/>
-      <c r="AK45" s="106"/>
-      <c r="AL45" s="106"/>
-      <c r="AM45" s="106"/>
-      <c r="AN45" s="106"/>
-      <c r="AO45" s="106"/>
-      <c r="AP45" s="106"/>
-      <c r="AQ45" s="106"/>
-      <c r="AR45" s="106"/>
-      <c r="AS45" s="106"/>
-      <c r="AT45" s="106"/>
-      <c r="AU45" s="106"/>
-      <c r="AV45" s="106"/>
-      <c r="AW45" s="106"/>
-      <c r="AX45" s="106"/>
-      <c r="AY45" s="106"/>
-      <c r="AZ45" s="106"/>
-      <c r="BA45" s="106"/>
-      <c r="BB45" s="106"/>
-      <c r="BC45" s="106"/>
-      <c r="BD45" s="106"/>
-      <c r="BE45" s="106"/>
-      <c r="BF45" s="106"/>
-      <c r="BG45" s="106"/>
-      <c r="BH45" s="106"/>
-      <c r="BI45" s="106"/>
-      <c r="BJ45" s="106"/>
-      <c r="BK45" s="106"/>
-      <c r="BL45" s="106"/>
-      <c r="BM45" s="106"/>
-      <c r="BN45" s="106"/>
-    </row>
-    <row r="46" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B46" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="100" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="79" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J46" s="98"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
-      <c r="O46" s="106"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="106"/>
-      <c r="R46" s="106"/>
-      <c r="S46" s="106"/>
-      <c r="T46" s="106"/>
-      <c r="U46" s="106"/>
-      <c r="V46" s="106"/>
-      <c r="W46" s="106"/>
-      <c r="X46" s="106"/>
-      <c r="Y46" s="106"/>
-      <c r="Z46" s="106"/>
-      <c r="AA46" s="106"/>
-      <c r="AB46" s="106"/>
-      <c r="AC46" s="106"/>
-      <c r="AD46" s="106"/>
-      <c r="AE46" s="106"/>
-      <c r="AF46" s="106"/>
-      <c r="AG46" s="106"/>
-      <c r="AH46" s="106"/>
-      <c r="AI46" s="106"/>
-      <c r="AJ46" s="106"/>
-      <c r="AK46" s="106"/>
-      <c r="AL46" s="106"/>
-      <c r="AM46" s="106"/>
-      <c r="AN46" s="106"/>
-      <c r="AO46" s="106"/>
-      <c r="AP46" s="106"/>
-      <c r="AQ46" s="106"/>
-      <c r="AR46" s="106"/>
-      <c r="AS46" s="106"/>
-      <c r="AT46" s="106"/>
-      <c r="AU46" s="106"/>
-      <c r="AV46" s="106"/>
-      <c r="AW46" s="106"/>
-      <c r="AX46" s="106"/>
-      <c r="AY46" s="106"/>
-      <c r="AZ46" s="106"/>
-      <c r="BA46" s="106"/>
-      <c r="BB46" s="106"/>
-      <c r="BC46" s="106"/>
-      <c r="BD46" s="106"/>
-      <c r="BE46" s="106"/>
-      <c r="BF46" s="106"/>
-      <c r="BG46" s="106"/>
-      <c r="BH46" s="106"/>
-      <c r="BI46" s="106"/>
-      <c r="BJ46" s="106"/>
-      <c r="BK46" s="106"/>
-      <c r="BL46" s="106"/>
-      <c r="BM46" s="106"/>
-      <c r="BN46" s="106"/>
-    </row>
-    <row r="47" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B47" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="100" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="79" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J47" s="98"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="106"/>
-      <c r="T47" s="106"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="106"/>
-      <c r="W47" s="106"/>
-      <c r="X47" s="106"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="106"/>
-      <c r="AA47" s="106"/>
-      <c r="AB47" s="106"/>
-      <c r="AC47" s="106"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="106"/>
-      <c r="AF47" s="106"/>
-      <c r="AG47" s="106"/>
-      <c r="AH47" s="106"/>
-      <c r="AI47" s="106"/>
-      <c r="AJ47" s="106"/>
-      <c r="AK47" s="106"/>
-      <c r="AL47" s="106"/>
-      <c r="AM47" s="106"/>
-      <c r="AN47" s="106"/>
-      <c r="AO47" s="106"/>
-      <c r="AP47" s="106"/>
-      <c r="AQ47" s="106"/>
-      <c r="AR47" s="106"/>
-      <c r="AS47" s="106"/>
-      <c r="AT47" s="106"/>
-      <c r="AU47" s="106"/>
-      <c r="AV47" s="106"/>
-      <c r="AW47" s="106"/>
-      <c r="AX47" s="106"/>
-      <c r="AY47" s="106"/>
-      <c r="AZ47" s="106"/>
-      <c r="BA47" s="106"/>
-      <c r="BB47" s="106"/>
-      <c r="BC47" s="106"/>
-      <c r="BD47" s="106"/>
-      <c r="BE47" s="106"/>
-      <c r="BF47" s="106"/>
-      <c r="BG47" s="106"/>
-      <c r="BH47" s="106"/>
-      <c r="BI47" s="106"/>
-      <c r="BJ47" s="106"/>
-      <c r="BK47" s="106"/>
-      <c r="BL47" s="106"/>
-      <c r="BM47" s="106"/>
-      <c r="BN47" s="106"/>
-    </row>
-    <row r="48" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="161" t="str">
-        <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
-        <v>► Watch How to Create a Gantt Chart in Excel</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="30"/>
-      <c r="AJ48" s="30"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
-      <c r="AM48" s="30"/>
-      <c r="AN48" s="30"/>
-      <c r="AO48" s="30"/>
-      <c r="AP48" s="30"/>
-      <c r="AQ48" s="30"/>
-      <c r="AR48" s="30"/>
-      <c r="AS48" s="30"/>
-      <c r="AT48" s="30"/>
-      <c r="AU48" s="30"/>
-      <c r="AV48" s="30"/>
-      <c r="AW48" s="30"/>
-      <c r="AX48" s="30"/>
-      <c r="AY48" s="30"/>
-      <c r="AZ48" s="30"/>
-      <c r="BA48" s="30"/>
-      <c r="BB48" s="30"/>
-      <c r="BC48" s="30"/>
-      <c r="BD48" s="30"/>
-      <c r="BE48" s="30"/>
-      <c r="BF48" s="30"/>
-      <c r="BG48" s="30"/>
-      <c r="BH48" s="30"/>
-      <c r="BI48" s="30"/>
-      <c r="BJ48" s="30"/>
-      <c r="BK48" s="30"/>
-      <c r="BL48" s="30"/>
-      <c r="BM48" s="30"/>
-      <c r="BN48" s="30"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="79"/>
+      <c r="AM34" s="79"/>
+      <c r="AN34" s="79"/>
+      <c r="AO34" s="79"/>
+      <c r="AP34" s="79"/>
+      <c r="AQ34" s="79"/>
+      <c r="AR34" s="79"/>
+      <c r="AS34" s="79"/>
+      <c r="AT34" s="79"/>
+      <c r="AU34" s="79"/>
+      <c r="AV34" s="79"/>
+      <c r="AW34" s="79"/>
+      <c r="AX34" s="79"/>
+      <c r="AY34" s="79"/>
+      <c r="AZ34" s="79"/>
+      <c r="BA34" s="79"/>
+      <c r="BB34" s="79"/>
+      <c r="BC34" s="79"/>
+      <c r="BD34" s="79"/>
+      <c r="BE34" s="79"/>
+      <c r="BF34" s="79"/>
+      <c r="BG34" s="79"/>
+      <c r="BH34" s="79"/>
+      <c r="BI34" s="79"/>
+      <c r="BJ34" s="79"/>
+      <c r="BK34" s="79"/>
+      <c r="BL34" s="79"/>
+      <c r="BM34" s="79"/>
+      <c r="BN34" s="79"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8141,19 +6927,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H26 H34:H47">
-    <cfRule type="dataBar" priority="30">
+  <conditionalFormatting sqref="H8:H26">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8167,25 +6944,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="24" priority="73">
+    <cfRule type="expression" dxfId="27" priority="77">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN26 K34:BN47">
-    <cfRule type="expression" dxfId="23" priority="76">
+  <conditionalFormatting sqref="K8:BN26">
+    <cfRule type="expression" dxfId="26" priority="80">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="77">
+    <cfRule type="expression" dxfId="25" priority="81">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN26 K34:BN47">
-    <cfRule type="expression" dxfId="21" priority="36">
+  <conditionalFormatting sqref="K6:BN26">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8199,20 +6976,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>AND($E27&lt;=K$6,ROUNDDOWN(($F27-$E27+1)*$H27,0)+$E27-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>AND(NOT(ISBLANK($E27)),$E27&lt;=K$6,$F27&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8226,20 +7003,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="20" priority="27">
       <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8253,20 +7030,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>AND($E29&lt;=K$6,ROUNDDOWN(($F29-$E29+1)*$H29,0)+$E29-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>AND(NOT(ISBLANK($E29)),$E29&lt;=K$6,$F29&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8280,20 +7057,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>AND($E30&lt;=K$6,ROUNDDOWN(($F30-$E30+1)*$H30,0)+$E30-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>AND(NOT(ISBLANK($E30)),$E30&lt;=K$6,$F30&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8307,20 +7084,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8334,20 +7111,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8361,14 +7138,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F4F1D07E-07B6-47D6-996F-0470CED2A215}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E34&lt;=K$6,ROUNDDOWN(($F34-$E34+1)*$H34,0)+$E34-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E34)),$E34&lt;=K$6,$F34&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8383,8 +7187,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A40:B41 B35 B36:B38 A43:B43 B42 E18 E25 E34 E41:H43 G18:H18 G25:H25 G34:H38 G44 G45:G46 G47 F40:H40" unlockedFormula="1"/>
-    <ignoredError sqref="A34 A25 A18" formula="1"/>
+    <ignoredError sqref="H9 E18 E25 G18:H18 G25:H25" unlockedFormula="1"/>
+    <ignoredError sqref="A25 A18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -8432,7 +7236,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H26 H34:H47</xm:sqref>
+          <xm:sqref>H8:H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{34362A0D-F701-4474-ADAF-21BE291869DE}">
@@ -8539,6 +7343,21 @@
           </x14:cfRule>
           <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F4F1D07E-07B6-47D6-996F-0470CED2A215}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -8565,18 +7384,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>24</v>
+      <c r="A1" s="31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8584,149 +7403,149 @@
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8759,15 +7578,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
-        <v>51</v>
+      <c r="A2" s="107" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -8778,483 +7597,483 @@
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="38"/>
+      <c r="A4" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
-        <v>81</v>
+      <c r="B5" s="108" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="137" t="s">
-        <v>93</v>
+      <c r="B7" s="108" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="136" t="s">
-        <v>63</v>
+      <c r="B9" s="107" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="135" t="s">
-        <v>64</v>
+      <c r="B11" s="106" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="175"/>
+      <c r="A13" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="145"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="138" t="s">
+    <row r="15" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
+      <c r="B15" s="109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="112"/>
+      <c r="B17" s="110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="112"/>
+      <c r="B18" s="110" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="38" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="115"/>
+      <c r="B19" s="110" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
+      <c r="B20" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="112"/>
+      <c r="B21" s="110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="113"/>
+      <c r="B22" s="114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="113"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="145"/>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="113"/>
+      <c r="B25" s="110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="113"/>
+      <c r="B26" s="110"/>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="113"/>
+      <c r="B27" s="131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="113"/>
+      <c r="B28" s="110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="113"/>
+      <c r="B29" s="110" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="141"/>
-      <c r="B17" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="141"/>
-      <c r="B18" s="139" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="41" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="139" t="s">
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="113"/>
+      <c r="B30" s="110"/>
+    </row>
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="113"/>
+      <c r="B31" s="131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="113"/>
+      <c r="B32" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="113"/>
+      <c r="B33" s="110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="113"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="113"/>
+      <c r="B35" s="110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="113"/>
+      <c r="B36" s="116" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="113"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="145"/>
+    </row>
+    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B39" s="110" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
-      <c r="B20" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="141"/>
-      <c r="B21" s="139" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="142"/>
-      <c r="B22" s="143" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="142"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="175" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="175"/>
-    </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="142"/>
-      <c r="B25" s="139" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="142"/>
-      <c r="B26" s="139"/>
-    </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="142"/>
-      <c r="B27" s="160" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="142"/>
-      <c r="B28" s="139" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="142"/>
-      <c r="B29" s="139" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="142"/>
-      <c r="B30" s="139"/>
-    </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="142"/>
-      <c r="B31" s="160" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="142"/>
-      <c r="B32" s="139" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="142"/>
-      <c r="B33" s="139" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="142"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="142"/>
-      <c r="B35" s="139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="142"/>
-      <c r="B36" s="145" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="142"/>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="175" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="175"/>
-    </row>
-    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B39" s="139" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B41" s="139" t="s">
-        <v>103</v>
+      <c r="B41" s="110" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:2" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B43" s="139" t="s">
-        <v>101</v>
+      <c r="B43" s="110" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B45" s="139" t="s">
-        <v>104</v>
+      <c r="B45" s="110" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
     </row>
     <row r="47" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B47" s="139" t="s">
-        <v>105</v>
+      <c r="B47" s="110" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="175"/>
+      <c r="A49" s="145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="145"/>
     </row>
     <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="139" t="s">
-        <v>136</v>
+      <c r="B50" s="110" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="139" t="s">
+      <c r="B53" s="110" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="146" t="s">
+    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="139" t="s">
+      <c r="B54" s="110" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="146" t="s">
+    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="106"/>
+      <c r="B55" s="110" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="106"/>
+      <c r="B56" s="110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="139" t="s">
+      <c r="B57" s="110" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="135"/>
-      <c r="B55" s="139" t="s">
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="106"/>
+      <c r="B58" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="106"/>
+      <c r="B59" s="110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="106"/>
+      <c r="B61" s="110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="118"/>
+      <c r="B63" s="110" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="135"/>
-      <c r="B56" s="139" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="146" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="139" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
-      <c r="B58" s="139" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
-      <c r="B59" s="139" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="139" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="135"/>
-      <c r="B61" s="139" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="139" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="147"/>
-      <c r="B63" s="139" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="175"/>
+      <c r="A65" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="145"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B66" s="139" t="s">
-        <v>114</v>
+      <c r="B66" s="110" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="175" t="s">
+      <c r="A68" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="145"/>
+    </row>
+    <row r="69" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="175"/>
-    </row>
-    <row r="69" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="155" t="s">
+      <c r="B69" s="126" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="119"/>
+      <c r="B70" s="124" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="119"/>
+      <c r="B71" s="120"/>
+    </row>
+    <row r="72" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="119"/>
+      <c r="B73" s="124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="119"/>
+      <c r="B74" s="120"/>
+    </row>
+    <row r="75" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="128" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="119"/>
+      <c r="B76" s="108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="118"/>
+      <c r="B77" s="118"/>
+    </row>
+    <row r="78" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A78" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="128" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="119"/>
+      <c r="B79" s="108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="118"/>
+      <c r="B80" s="118"/>
+    </row>
+    <row r="81" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="119"/>
+      <c r="B82" s="123" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="148"/>
-      <c r="B70" s="153" t="s">
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="119"/>
+      <c r="B83" s="123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="119"/>
+      <c r="B84" s="123" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="148"/>
-      <c r="B71" s="149"/>
-    </row>
-    <row r="72" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="155" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="148"/>
-      <c r="B73" s="153" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="148"/>
-      <c r="B74" s="149"/>
-    </row>
-    <row r="75" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="157" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="148"/>
-      <c r="B76" s="137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="147"/>
-      <c r="B77" s="147"/>
-    </row>
-    <row r="78" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="157" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="148"/>
-      <c r="B79" s="137" t="s">
+    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="118"/>
+      <c r="B85" s="122"/>
+    </row>
+    <row r="86" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="128" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="147"/>
-      <c r="B80" s="147"/>
-    </row>
-    <row r="81" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="157" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="148"/>
-      <c r="B82" s="152" t="s">
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="119"/>
+      <c r="B87" s="108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="119"/>
+      <c r="B88" s="121" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="119"/>
+      <c r="B89" s="127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="118"/>
+      <c r="B90" s="118"/>
+    </row>
+    <row r="91" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="130" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="148"/>
-      <c r="B83" s="152" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="148"/>
-      <c r="B84" s="152" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="147"/>
-      <c r="B85" s="151"/>
-    </row>
-    <row r="86" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="157" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="148"/>
-      <c r="B87" s="137" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="148"/>
-      <c r="B88" s="150" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="148"/>
-      <c r="B89" s="156" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="147"/>
-      <c r="B90" s="147"/>
-    </row>
-    <row r="91" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="159" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="135"/>
-      <c r="B92" s="152" t="s">
-        <v>23</v>
+      <c r="A92" s="106"/>
+      <c r="B92" s="123" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9296,30 +8115,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="A1" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="43"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="37" t="s">
-        <v>51</v>
+      <c r="B4" s="34" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -9331,7 +8150,7 @@
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -9343,7 +8162,7 @@
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="15"/>
     </row>
@@ -9355,7 +8174,7 @@
     <row r="10" spans="1:4" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -9367,7 +8186,7 @@
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -9379,7 +8198,7 @@
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -9391,7 +8210,7 @@
     <row r="16" spans="1:4" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -9403,14 +8222,14 @@
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="36" t="s">
-        <v>52</v>
+      <c r="B19" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="15"/>
     </row>
